--- a/repo/grafici_speciali.xlsx
+++ b/repo/grafici_speciali.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Data</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>FasciaTemp</t>
+  </si>
+  <si>
+    <t>ClassePioggia</t>
   </si>
 </sst>
 </file>
@@ -118,31 +121,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -156,6 +159,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E366" displayName="Tabella1" name="Tabella1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:E366"/>
+  <tableColumns count="5">
+    <tableColumn name="Data" id="1"/>
+    <tableColumn name="Temperatura" id="2"/>
+    <tableColumn name="Pioggia_mm" id="3"/>
+    <tableColumn name="FasciaTemp" id="4"/>
+    <tableColumn name="ClassePioggia" id="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,16 +463,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D366"/>
+  <dimension ref="A1:E366"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="19.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -471,6 +489,9 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="5">
@@ -483,7 +504,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="8">
-        <f>IF(B2&lt;5,"Freddo(&lt;5°C)",IF(B2&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B2&lt;10,"Freddo(&lt;10°C)",IF(B2&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E2" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
@@ -497,7 +521,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="8">
-        <f>IF(B3&lt;5,"Freddo(&lt;5°C)",IF(B3&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B3&lt;10,"Freddo(&lt;10°C)",IF(B3&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E3" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -511,7 +538,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="8">
-        <f>IF(B4&lt;5,"Freddo(&lt;5°C)",IF(B4&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B4&lt;10,"Freddo(&lt;10°C)",IF(B4&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E4" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -525,7 +555,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="8">
-        <f>IF(B5&lt;5,"Freddo(&lt;5°C)",IF(B5&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B5&lt;10,"Freddo(&lt;10°C)",IF(B5&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E5" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
@@ -539,7 +572,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="8">
-        <f>IF(B6&lt;5,"Freddo(&lt;5°C)",IF(B6&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B6&lt;10,"Freddo(&lt;10°C)",IF(B6&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E6" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
@@ -553,7 +589,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="8">
-        <f>IF(B7&lt;5,"Freddo(&lt;5°C)",IF(B7&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B7&lt;10,"Freddo(&lt;10°C)",IF(B7&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E7" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
@@ -564,10 +603,13 @@
         <v>17</v>
       </c>
       <c r="C8" s="6">
-        <v>9.3</v>
+        <v>15.3</v>
       </c>
       <c r="D8" s="8">
-        <f>IF(B8&lt;5,"Freddo(&lt;5°C)",IF(B8&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B8&lt;10,"Freddo(&lt;10°C)",IF(B8&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E8" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
@@ -578,10 +620,13 @@
         <v>16.6</v>
       </c>
       <c r="C9" s="6">
-        <v>5.8</v>
+        <v>15.8</v>
       </c>
       <c r="D9" s="8">
-        <f>IF(B9&lt;5,"Freddo(&lt;5°C)",IF(B9&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B9&lt;10,"Freddo(&lt;10°C)",IF(B9&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E9" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
@@ -595,7 +640,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="8">
-        <f>IF(B10&lt;5,"Freddo(&lt;5°C)",IF(B10&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B10&lt;10,"Freddo(&lt;10°C)",IF(B10&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E10" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
@@ -609,7 +657,10 @@
         <v>7.8</v>
       </c>
       <c r="D11" s="8">
-        <f>IF(B11&lt;5,"Freddo(&lt;5°C)",IF(B11&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B11&lt;10,"Freddo(&lt;10°C)",IF(B11&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E11" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
@@ -623,7 +674,10 @@
         <v>4.7</v>
       </c>
       <c r="D12" s="8">
-        <f>IF(B12&lt;5,"Freddo(&lt;5°C)",IF(B12&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B12&lt;10,"Freddo(&lt;10°C)",IF(B12&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E12" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
@@ -637,7 +691,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="8">
-        <f>IF(B13&lt;5,"Freddo(&lt;5°C)",IF(B13&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B13&lt;10,"Freddo(&lt;10°C)",IF(B13&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E13" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
@@ -651,7 +708,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="8">
-        <f>IF(B14&lt;5,"Freddo(&lt;5°C)",IF(B14&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B14&lt;10,"Freddo(&lt;10°C)",IF(B14&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E14" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
@@ -665,7 +725,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="8">
-        <f>IF(B15&lt;5,"Freddo(&lt;5°C)",IF(B15&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B15&lt;10,"Freddo(&lt;10°C)",IF(B15&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E15" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
@@ -679,7 +742,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="8">
-        <f>IF(B16&lt;5,"Freddo(&lt;5°C)",IF(B16&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B16&lt;10,"Freddo(&lt;10°C)",IF(B16&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E16" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
@@ -693,7 +759,10 @@
         <v>4.8</v>
       </c>
       <c r="D17" s="8">
-        <f>IF(B17&lt;5,"Freddo(&lt;5°C)",IF(B17&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B17&lt;10,"Freddo(&lt;10°C)",IF(B17&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E17" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
@@ -707,7 +776,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="8">
-        <f>IF(B18&lt;5,"Freddo(&lt;5°C)",IF(B18&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B18&lt;10,"Freddo(&lt;10°C)",IF(B18&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E18" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
@@ -721,7 +793,10 @@
         <v>5.8</v>
       </c>
       <c r="D19" s="8">
-        <f>IF(B19&lt;5,"Freddo(&lt;5°C)",IF(B19&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B19&lt;10,"Freddo(&lt;10°C)",IF(B19&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E19" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
@@ -735,7 +810,10 @@
         <v>9</v>
       </c>
       <c r="D20" s="8">
-        <f>IF(B20&lt;5,"Freddo(&lt;5°C)",IF(B20&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B20&lt;10,"Freddo(&lt;10°C)",IF(B20&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E20" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
@@ -749,7 +827,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="8">
-        <f>IF(B21&lt;5,"Freddo(&lt;5°C)",IF(B21&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B21&lt;10,"Freddo(&lt;10°C)",IF(B21&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E21" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
@@ -763,7 +844,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="8">
-        <f>IF(B22&lt;5,"Freddo(&lt;5°C)",IF(B22&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B22&lt;10,"Freddo(&lt;10°C)",IF(B22&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E22" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
@@ -777,7 +861,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="8">
-        <f>IF(B23&lt;5,"Freddo(&lt;5°C)",IF(B23&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B23&lt;10,"Freddo(&lt;10°C)",IF(B23&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E23" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
@@ -791,7 +878,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="8">
-        <f>IF(B24&lt;5,"Freddo(&lt;5°C)",IF(B24&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B24&lt;10,"Freddo(&lt;10°C)",IF(B24&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E24" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
@@ -805,7 +895,10 @@
         <v>11.1</v>
       </c>
       <c r="D25" s="8">
-        <f>IF(B25&lt;5,"Freddo(&lt;5°C)",IF(B25&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B25&lt;10,"Freddo(&lt;10°C)",IF(B25&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E25" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
@@ -819,7 +912,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="8">
-        <f>IF(B26&lt;5,"Freddo(&lt;5°C)",IF(B26&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B26&lt;10,"Freddo(&lt;10°C)",IF(B26&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E26" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
@@ -833,7 +929,10 @@
         <v>2.6</v>
       </c>
       <c r="D27" s="8">
-        <f>IF(B27&lt;5,"Freddo(&lt;5°C)",IF(B27&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B27&lt;10,"Freddo(&lt;10°C)",IF(B27&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E27" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
@@ -847,7 +946,10 @@
         <v>11</v>
       </c>
       <c r="D28" s="8">
-        <f>IF(B28&lt;5,"Freddo(&lt;5°C)",IF(B28&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B28&lt;10,"Freddo(&lt;10°C)",IF(B28&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E28" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
@@ -861,7 +963,10 @@
         <v>7</v>
       </c>
       <c r="D29" s="8">
-        <f>IF(B29&lt;5,"Freddo(&lt;5°C)",IF(B29&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B29&lt;10,"Freddo(&lt;10°C)",IF(B29&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E29" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
@@ -875,7 +980,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="8">
-        <f>IF(B30&lt;5,"Freddo(&lt;5°C)",IF(B30&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B30&lt;10,"Freddo(&lt;10°C)",IF(B30&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E30" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
@@ -889,7 +997,10 @@
         <v>0</v>
       </c>
       <c r="D31" s="8">
-        <f>IF(B31&lt;5,"Freddo(&lt;5°C)",IF(B31&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B31&lt;10,"Freddo(&lt;10°C)",IF(B31&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E31" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
@@ -903,7 +1014,10 @@
         <v>2.9</v>
       </c>
       <c r="D32" s="8">
-        <f>IF(B32&lt;5,"Freddo(&lt;5°C)",IF(B32&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B32&lt;10,"Freddo(&lt;10°C)",IF(B32&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E32" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
@@ -917,7 +1031,10 @@
         <v>2.9</v>
       </c>
       <c r="D33" s="8">
-        <f>IF(B33&lt;5,"Freddo(&lt;5°C)",IF(B33&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B33&lt;10,"Freddo(&lt;10°C)",IF(B33&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E33" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
@@ -931,7 +1048,10 @@
         <v>7.8</v>
       </c>
       <c r="D34" s="8">
-        <f>IF(B34&lt;5,"Freddo(&lt;5°C)",IF(B34&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B34&lt;10,"Freddo(&lt;10°C)",IF(B34&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E34" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
@@ -942,10 +1062,13 @@
         <v>20</v>
       </c>
       <c r="C35" s="6">
-        <v>6.8</v>
+        <v>18.8</v>
       </c>
       <c r="D35" s="8">
-        <f>IF(B35&lt;5,"Freddo(&lt;5°C)",IF(B35&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B35&lt;10,"Freddo(&lt;10°C)",IF(B35&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E35" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
@@ -956,10 +1079,13 @@
         <v>18.7</v>
       </c>
       <c r="C36" s="6">
-        <v>6.1</v>
+        <v>16.1</v>
       </c>
       <c r="D36" s="8">
-        <f>IF(B36&lt;5,"Freddo(&lt;5°C)",IF(B36&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B36&lt;10,"Freddo(&lt;10°C)",IF(B36&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E36" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
@@ -973,7 +1099,10 @@
         <v>7</v>
       </c>
       <c r="D37" s="8">
-        <f>IF(B37&lt;5,"Freddo(&lt;5°C)",IF(B37&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B37&lt;10,"Freddo(&lt;10°C)",IF(B37&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E37" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
@@ -987,7 +1116,10 @@
         <v>0</v>
       </c>
       <c r="D38" s="8">
-        <f>IF(B38&lt;5,"Freddo(&lt;5°C)",IF(B38&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B38&lt;10,"Freddo(&lt;10°C)",IF(B38&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E38" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
@@ -1001,7 +1133,10 @@
         <v>0</v>
       </c>
       <c r="D39" s="8">
-        <f>IF(B39&lt;5,"Freddo(&lt;5°C)",IF(B39&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B39&lt;10,"Freddo(&lt;10°C)",IF(B39&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E39" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
@@ -1015,7 +1150,10 @@
         <v>0</v>
       </c>
       <c r="D40" s="8">
-        <f>IF(B40&lt;5,"Freddo(&lt;5°C)",IF(B40&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B40&lt;10,"Freddo(&lt;10°C)",IF(B40&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E40" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
@@ -1029,7 +1167,10 @@
         <v>0</v>
       </c>
       <c r="D41" s="8">
-        <f>IF(B41&lt;5,"Freddo(&lt;5°C)",IF(B41&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B41&lt;10,"Freddo(&lt;10°C)",IF(B41&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E41" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
@@ -1043,7 +1184,10 @@
         <v>0</v>
       </c>
       <c r="D42" s="8">
-        <f>IF(B42&lt;5,"Freddo(&lt;5°C)",IF(B42&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B42&lt;10,"Freddo(&lt;10°C)",IF(B42&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E42" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
@@ -1057,7 +1201,10 @@
         <v>11</v>
       </c>
       <c r="D43" s="8">
-        <f>IF(B43&lt;5,"Freddo(&lt;5°C)",IF(B43&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B43&lt;10,"Freddo(&lt;10°C)",IF(B43&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E43" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
@@ -1071,7 +1218,10 @@
         <v>9.6</v>
       </c>
       <c r="D44" s="8">
-        <f>IF(B44&lt;5,"Freddo(&lt;5°C)",IF(B44&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B44&lt;10,"Freddo(&lt;10°C)",IF(B44&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E44" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
@@ -1085,7 +1235,10 @@
         <v>0</v>
       </c>
       <c r="D45" s="8">
-        <f>IF(B45&lt;5,"Freddo(&lt;5°C)",IF(B45&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B45&lt;10,"Freddo(&lt;10°C)",IF(B45&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E45" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
@@ -1099,7 +1252,10 @@
         <v>0</v>
       </c>
       <c r="D46" s="8">
-        <f>IF(B46&lt;5,"Freddo(&lt;5°C)",IF(B46&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B46&lt;10,"Freddo(&lt;10°C)",IF(B46&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E46" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
@@ -1113,7 +1269,10 @@
         <v>0</v>
       </c>
       <c r="D47" s="8">
-        <f>IF(B47&lt;5,"Freddo(&lt;5°C)",IF(B47&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B47&lt;10,"Freddo(&lt;10°C)",IF(B47&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E47" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
@@ -1127,7 +1286,10 @@
         <v>0</v>
       </c>
       <c r="D48" s="8">
-        <f>IF(B48&lt;5,"Freddo(&lt;5°C)",IF(B48&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B48&lt;10,"Freddo(&lt;10°C)",IF(B48&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E48" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
@@ -1141,7 +1303,10 @@
         <v>6.8</v>
       </c>
       <c r="D49" s="8">
-        <f>IF(B49&lt;5,"Freddo(&lt;5°C)",IF(B49&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B49&lt;10,"Freddo(&lt;10°C)",IF(B49&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E49" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
@@ -1155,7 +1320,10 @@
         <v>0</v>
       </c>
       <c r="D50" s="8">
-        <f>IF(B50&lt;5,"Freddo(&lt;5°C)",IF(B50&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B50&lt;10,"Freddo(&lt;10°C)",IF(B50&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E50" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
@@ -1169,7 +1337,10 @@
         <v>8.1</v>
       </c>
       <c r="D51" s="8">
-        <f>IF(B51&lt;5,"Freddo(&lt;5°C)",IF(B51&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B51&lt;10,"Freddo(&lt;10°C)",IF(B51&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E51" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
@@ -1183,7 +1354,10 @@
         <v>14.4</v>
       </c>
       <c r="D52" s="8">
-        <f>IF(B52&lt;5,"Freddo(&lt;5°C)",IF(B52&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B52&lt;10,"Freddo(&lt;10°C)",IF(B52&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E52" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
@@ -1197,7 +1371,10 @@
         <v>0</v>
       </c>
       <c r="D53" s="8">
-        <f>IF(B53&lt;5,"Freddo(&lt;5°C)",IF(B53&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B53&lt;10,"Freddo(&lt;10°C)",IF(B53&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E53" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
@@ -1211,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="D54" s="8">
-        <f>IF(B54&lt;5,"Freddo(&lt;5°C)",IF(B54&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B54&lt;10,"Freddo(&lt;10°C)",IF(B54&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E54" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
@@ -1225,7 +1405,10 @@
         <v>6</v>
       </c>
       <c r="D55" s="8">
-        <f>IF(B55&lt;5,"Freddo(&lt;5°C)",IF(B55&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B55&lt;10,"Freddo(&lt;10°C)",IF(B55&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E55" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
@@ -1239,7 +1422,10 @@
         <v>12.1</v>
       </c>
       <c r="D56" s="8">
-        <f>IF(B56&lt;5,"Freddo(&lt;5°C)",IF(B56&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B56&lt;10,"Freddo(&lt;10°C)",IF(B56&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E56" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
@@ -1253,7 +1439,10 @@
         <v>13</v>
       </c>
       <c r="D57" s="8">
-        <f>IF(B57&lt;5,"Freddo(&lt;5°C)",IF(B57&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B57&lt;10,"Freddo(&lt;10°C)",IF(B57&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E57" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
@@ -1267,7 +1456,10 @@
         <v>0</v>
       </c>
       <c r="D58" s="8">
-        <f>IF(B58&lt;5,"Freddo(&lt;5°C)",IF(B58&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B58&lt;10,"Freddo(&lt;10°C)",IF(B58&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E58" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
@@ -1281,7 +1473,10 @@
         <v>0</v>
       </c>
       <c r="D59" s="8">
-        <f>IF(B59&lt;5,"Freddo(&lt;5°C)",IF(B59&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B59&lt;10,"Freddo(&lt;10°C)",IF(B59&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E59" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
@@ -1295,7 +1490,10 @@
         <v>0</v>
       </c>
       <c r="D60" s="8">
-        <f>IF(B60&lt;5,"Freddo(&lt;5°C)",IF(B60&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B60&lt;10,"Freddo(&lt;10°C)",IF(B60&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E60" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
@@ -1309,7 +1507,10 @@
         <v>0</v>
       </c>
       <c r="D61" s="8">
-        <f>IF(B61&lt;5,"Freddo(&lt;5°C)",IF(B61&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B61&lt;10,"Freddo(&lt;10°C)",IF(B61&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E61" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
@@ -1323,7 +1524,10 @@
         <v>1.9</v>
       </c>
       <c r="D62" s="8">
-        <f>IF(B62&lt;5,"Freddo(&lt;5°C)",IF(B62&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B62&lt;10,"Freddo(&lt;10°C)",IF(B62&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E62" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
@@ -1337,7 +1541,10 @@
         <v>0</v>
       </c>
       <c r="D63" s="8">
-        <f>IF(B63&lt;5,"Freddo(&lt;5°C)",IF(B63&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B63&lt;10,"Freddo(&lt;10°C)",IF(B63&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E63" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
@@ -1351,7 +1558,10 @@
         <v>0</v>
       </c>
       <c r="D64" s="8">
-        <f>IF(B64&lt;5,"Freddo(&lt;5°C)",IF(B64&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B64&lt;10,"Freddo(&lt;10°C)",IF(B64&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E64" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
@@ -1365,7 +1575,10 @@
         <v>0</v>
       </c>
       <c r="D65" s="8">
-        <f>IF(B65&lt;5,"Freddo(&lt;5°C)",IF(B65&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B65&lt;10,"Freddo(&lt;10°C)",IF(B65&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E65" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
@@ -1379,7 +1592,10 @@
         <v>17.8</v>
       </c>
       <c r="D66" s="8">
-        <f>IF(B66&lt;5,"Freddo(&lt;5°C)",IF(B66&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B66&lt;10,"Freddo(&lt;10°C)",IF(B66&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E66" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
@@ -1393,7 +1609,10 @@
         <v>0</v>
       </c>
       <c r="D67" s="8">
-        <f>IF(B67&lt;5,"Freddo(&lt;5°C)",IF(B67&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B67&lt;10,"Freddo(&lt;10°C)",IF(B67&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E67" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
@@ -1407,7 +1626,10 @@
         <v>5.5</v>
       </c>
       <c r="D68" s="8">
-        <f>IF(B68&lt;5,"Freddo(&lt;5°C)",IF(B68&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B68&lt;10,"Freddo(&lt;10°C)",IF(B68&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E68" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
@@ -1421,7 +1643,10 @@
         <v>6.4</v>
       </c>
       <c r="D69" s="8">
-        <f>IF(B69&lt;5,"Freddo(&lt;5°C)",IF(B69&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B69&lt;10,"Freddo(&lt;10°C)",IF(B69&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E69" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
@@ -1435,7 +1660,10 @@
         <v>4.3</v>
       </c>
       <c r="D70" s="8">
-        <f>IF(B70&lt;5,"Freddo(&lt;5°C)",IF(B70&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B70&lt;10,"Freddo(&lt;10°C)",IF(B70&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E70" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
@@ -1449,7 +1677,10 @@
         <v>0</v>
       </c>
       <c r="D71" s="8">
-        <f>IF(B71&lt;5,"Freddo(&lt;5°C)",IF(B71&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B71&lt;10,"Freddo(&lt;10°C)",IF(B71&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E71" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
@@ -1463,7 +1694,10 @@
         <v>0</v>
       </c>
       <c r="D72" s="8">
-        <f>IF(B72&lt;5,"Freddo(&lt;5°C)",IF(B72&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B72&lt;10,"Freddo(&lt;10°C)",IF(B72&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E72" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
@@ -1477,7 +1711,10 @@
         <v>0</v>
       </c>
       <c r="D73" s="8">
-        <f>IF(B73&lt;5,"Freddo(&lt;5°C)",IF(B73&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B73&lt;10,"Freddo(&lt;10°C)",IF(B73&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E73" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
@@ -1491,7 +1728,10 @@
         <v>0</v>
       </c>
       <c r="D74" s="8">
-        <f>IF(B74&lt;5,"Freddo(&lt;5°C)",IF(B74&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B74&lt;10,"Freddo(&lt;10°C)",IF(B74&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E74" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
@@ -1505,7 +1745,10 @@
         <v>0</v>
       </c>
       <c r="D75" s="8">
-        <f>IF(B75&lt;5,"Freddo(&lt;5°C)",IF(B75&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B75&lt;10,"Freddo(&lt;10°C)",IF(B75&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E75" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
@@ -1519,7 +1762,10 @@
         <v>9.3</v>
       </c>
       <c r="D76" s="8">
-        <f>IF(B76&lt;5,"Freddo(&lt;5°C)",IF(B76&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B76&lt;10,"Freddo(&lt;10°C)",IF(B76&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E76" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
@@ -1533,7 +1779,10 @@
         <v>6.3</v>
       </c>
       <c r="D77" s="8">
-        <f>IF(B77&lt;5,"Freddo(&lt;5°C)",IF(B77&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B77&lt;10,"Freddo(&lt;10°C)",IF(B77&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E77" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
@@ -1547,7 +1796,10 @@
         <v>0</v>
       </c>
       <c r="D78" s="8">
-        <f>IF(B78&lt;5,"Freddo(&lt;5°C)",IF(B78&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B78&lt;10,"Freddo(&lt;10°C)",IF(B78&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E78" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
@@ -1561,7 +1813,10 @@
         <v>0</v>
       </c>
       <c r="D79" s="8">
-        <f>IF(B79&lt;5,"Freddo(&lt;5°C)",IF(B79&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B79&lt;10,"Freddo(&lt;10°C)",IF(B79&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E79" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
@@ -1575,7 +1830,10 @@
         <v>0</v>
       </c>
       <c r="D80" s="8">
-        <f>IF(B80&lt;5,"Freddo(&lt;5°C)",IF(B80&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B80&lt;10,"Freddo(&lt;10°C)",IF(B80&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E80" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
@@ -1589,7 +1847,10 @@
         <v>0</v>
       </c>
       <c r="D81" s="8">
-        <f>IF(B81&lt;5,"Freddo(&lt;5°C)",IF(B81&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B81&lt;10,"Freddo(&lt;10°C)",IF(B81&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E81" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
@@ -1603,7 +1864,10 @@
         <v>0</v>
       </c>
       <c r="D82" s="8">
-        <f>IF(B82&lt;5,"Freddo(&lt;5°C)",IF(B82&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B82&lt;10,"Freddo(&lt;10°C)",IF(B82&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E82" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
@@ -1617,7 +1881,10 @@
         <v>7.7</v>
       </c>
       <c r="D83" s="8">
-        <f>IF(B83&lt;5,"Freddo(&lt;5°C)",IF(B83&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B83&lt;10,"Freddo(&lt;10°C)",IF(B83&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E83" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
@@ -1631,7 +1898,10 @@
         <v>0</v>
       </c>
       <c r="D84" s="8">
-        <f>IF(B84&lt;5,"Freddo(&lt;5°C)",IF(B84&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B84&lt;10,"Freddo(&lt;10°C)",IF(B84&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E84" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
@@ -1645,7 +1915,10 @@
         <v>0</v>
       </c>
       <c r="D85" s="8">
-        <f>IF(B85&lt;5,"Freddo(&lt;5°C)",IF(B85&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B85&lt;10,"Freddo(&lt;10°C)",IF(B85&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E85" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
@@ -1659,7 +1932,10 @@
         <v>0</v>
       </c>
       <c r="D86" s="8">
-        <f>IF(B86&lt;5,"Freddo(&lt;5°C)",IF(B86&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B86&lt;10,"Freddo(&lt;10°C)",IF(B86&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E86" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
@@ -1673,7 +1949,10 @@
         <v>0</v>
       </c>
       <c r="D87" s="8">
-        <f>IF(B87&lt;5,"Freddo(&lt;5°C)",IF(B87&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B87&lt;10,"Freddo(&lt;10°C)",IF(B87&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E87" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
@@ -1687,7 +1966,10 @@
         <v>0</v>
       </c>
       <c r="D88" s="8">
-        <f>IF(B88&lt;5,"Freddo(&lt;5°C)",IF(B88&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B88&lt;10,"Freddo(&lt;10°C)",IF(B88&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E88" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
@@ -1701,7 +1983,10 @@
         <v>5.6</v>
       </c>
       <c r="D89" s="8">
-        <f>IF(B89&lt;5,"Freddo(&lt;5°C)",IF(B89&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B89&lt;10,"Freddo(&lt;10°C)",IF(B89&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E89" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
@@ -1715,7 +2000,10 @@
         <v>2.5</v>
       </c>
       <c r="D90" s="8">
-        <f>IF(B90&lt;5,"Freddo(&lt;5°C)",IF(B90&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B90&lt;10,"Freddo(&lt;10°C)",IF(B90&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E90" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
@@ -1729,7 +2017,10 @@
         <v>0</v>
       </c>
       <c r="D91" s="8">
-        <f>IF(B91&lt;5,"Freddo(&lt;5°C)",IF(B91&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B91&lt;10,"Freddo(&lt;10°C)",IF(B91&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E91" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
@@ -1743,7 +2034,10 @@
         <v>0</v>
       </c>
       <c r="D92" s="8">
-        <f>IF(B92&lt;5,"Freddo(&lt;5°C)",IF(B92&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B92&lt;10,"Freddo(&lt;10°C)",IF(B92&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E92" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
@@ -1757,7 +2051,10 @@
         <v>0</v>
       </c>
       <c r="D93" s="8">
-        <f>IF(B93&lt;5,"Freddo(&lt;5°C)",IF(B93&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B93&lt;10,"Freddo(&lt;10°C)",IF(B93&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E93" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
@@ -1771,7 +2068,10 @@
         <v>0</v>
       </c>
       <c r="D94" s="8">
-        <f>IF(B94&lt;5,"Freddo(&lt;5°C)",IF(B94&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B94&lt;10,"Freddo(&lt;10°C)",IF(B94&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E94" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
@@ -1785,7 +2085,10 @@
         <v>2.3</v>
       </c>
       <c r="D95" s="8">
-        <f>IF(B95&lt;5,"Freddo(&lt;5°C)",IF(B95&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B95&lt;10,"Freddo(&lt;10°C)",IF(B95&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E95" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
@@ -1799,7 +2102,10 @@
         <v>0</v>
       </c>
       <c r="D96" s="8">
-        <f>IF(B96&lt;5,"Freddo(&lt;5°C)",IF(B96&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B96&lt;10,"Freddo(&lt;10°C)",IF(B96&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E96" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
@@ -1813,7 +2119,10 @@
         <v>0</v>
       </c>
       <c r="D97" s="8">
-        <f>IF(B97&lt;5,"Freddo(&lt;5°C)",IF(B97&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B97&lt;10,"Freddo(&lt;10°C)",IF(B97&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E97" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
@@ -1827,7 +2136,10 @@
         <v>0</v>
       </c>
       <c r="D98" s="8">
-        <f>IF(B98&lt;5,"Freddo(&lt;5°C)",IF(B98&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B98&lt;10,"Freddo(&lt;10°C)",IF(B98&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E98" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
@@ -1841,7 +2153,10 @@
         <v>8.6</v>
       </c>
       <c r="D99" s="8">
-        <f>IF(B99&lt;5,"Freddo(&lt;5°C)",IF(B99&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B99&lt;10,"Freddo(&lt;10°C)",IF(B99&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E99" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
@@ -1855,7 +2170,10 @@
         <v>11.6</v>
       </c>
       <c r="D100" s="8">
-        <f>IF(B100&lt;5,"Freddo(&lt;5°C)",IF(B100&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B100&lt;10,"Freddo(&lt;10°C)",IF(B100&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E100" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
@@ -1866,10 +2184,13 @@
         <v>24.7</v>
       </c>
       <c r="C101" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D101" s="8">
-        <f>IF(B101&lt;5,"Freddo(&lt;5°C)",IF(B101&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B101&lt;10,"Freddo(&lt;10°C)",IF(B101&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E101" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
@@ -1880,10 +2201,13 @@
         <v>24.4</v>
       </c>
       <c r="C102" s="6">
-        <v>3.2</v>
+        <v>13.2</v>
       </c>
       <c r="D102" s="8">
-        <f>IF(B102&lt;5,"Freddo(&lt;5°C)",IF(B102&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B102&lt;10,"Freddo(&lt;10°C)",IF(B102&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E102" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
@@ -1897,7 +2221,10 @@
         <v>0</v>
       </c>
       <c r="D103" s="8">
-        <f>IF(B103&lt;5,"Freddo(&lt;5°C)",IF(B103&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B103&lt;10,"Freddo(&lt;10°C)",IF(B103&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E103" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
@@ -1911,7 +2238,10 @@
         <v>0</v>
       </c>
       <c r="D104" s="8">
-        <f>IF(B104&lt;5,"Freddo(&lt;5°C)",IF(B104&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B104&lt;10,"Freddo(&lt;10°C)",IF(B104&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E104" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
@@ -1925,7 +2255,10 @@
         <v>2.7</v>
       </c>
       <c r="D105" s="8">
-        <f>IF(B105&lt;5,"Freddo(&lt;5°C)",IF(B105&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B105&lt;10,"Freddo(&lt;10°C)",IF(B105&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E105" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
@@ -1939,7 +2272,10 @@
         <v>0</v>
       </c>
       <c r="D106" s="8">
-        <f>IF(B106&lt;5,"Freddo(&lt;5°C)",IF(B106&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B106&lt;10,"Freddo(&lt;10°C)",IF(B106&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E106" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
@@ -1953,7 +2289,10 @@
         <v>0</v>
       </c>
       <c r="D107" s="8">
-        <f>IF(B107&lt;5,"Freddo(&lt;5°C)",IF(B107&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B107&lt;10,"Freddo(&lt;10°C)",IF(B107&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E107" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
@@ -1967,7 +2306,10 @@
         <v>0</v>
       </c>
       <c r="D108" s="8">
-        <f>IF(B108&lt;5,"Freddo(&lt;5°C)",IF(B108&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B108&lt;10,"Freddo(&lt;10°C)",IF(B108&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E108" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
@@ -1981,7 +2323,10 @@
         <v>0</v>
       </c>
       <c r="D109" s="8">
-        <f>IF(B109&lt;5,"Freddo(&lt;5°C)",IF(B109&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B109&lt;10,"Freddo(&lt;10°C)",IF(B109&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E109" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
@@ -1995,7 +2340,10 @@
         <v>0</v>
       </c>
       <c r="D110" s="8">
-        <f>IF(B110&lt;5,"Freddo(&lt;5°C)",IF(B110&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B110&lt;10,"Freddo(&lt;10°C)",IF(B110&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E110" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
@@ -2009,7 +2357,10 @@
         <v>0</v>
       </c>
       <c r="D111" s="8">
-        <f>IF(B111&lt;5,"Freddo(&lt;5°C)",IF(B111&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B111&lt;10,"Freddo(&lt;10°C)",IF(B111&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E111" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
@@ -2023,7 +2374,10 @@
         <v>0</v>
       </c>
       <c r="D112" s="8">
-        <f>IF(B112&lt;5,"Freddo(&lt;5°C)",IF(B112&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B112&lt;10,"Freddo(&lt;10°C)",IF(B112&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E112" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
@@ -2037,7 +2391,10 @@
         <v>0</v>
       </c>
       <c r="D113" s="8">
-        <f>IF(B113&lt;5,"Freddo(&lt;5°C)",IF(B113&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B113&lt;10,"Freddo(&lt;10°C)",IF(B113&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E113" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
@@ -2051,7 +2408,10 @@
         <v>0</v>
       </c>
       <c r="D114" s="8">
-        <f>IF(B114&lt;5,"Freddo(&lt;5°C)",IF(B114&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B114&lt;10,"Freddo(&lt;10°C)",IF(B114&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E114" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
@@ -2065,7 +2425,10 @@
         <v>0</v>
       </c>
       <c r="D115" s="8">
-        <f>IF(B115&lt;5,"Freddo(&lt;5°C)",IF(B115&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B115&lt;10,"Freddo(&lt;10°C)",IF(B115&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E115" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
@@ -2079,7 +2442,10 @@
         <v>6.8</v>
       </c>
       <c r="D116" s="8">
-        <f>IF(B116&lt;5,"Freddo(&lt;5°C)",IF(B116&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B116&lt;10,"Freddo(&lt;10°C)",IF(B116&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E116" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
@@ -2090,10 +2456,13 @@
         <v>23</v>
       </c>
       <c r="C117" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D117" s="8">
-        <f>IF(B117&lt;5,"Freddo(&lt;5°C)",IF(B117&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B117&lt;10,"Freddo(&lt;10°C)",IF(B117&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E117" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
@@ -2107,7 +2476,10 @@
         <v>4.7</v>
       </c>
       <c r="D118" s="8">
-        <f>IF(B118&lt;5,"Freddo(&lt;5°C)",IF(B118&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B118&lt;10,"Freddo(&lt;10°C)",IF(B118&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E118" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
@@ -2121,7 +2493,10 @@
         <v>0</v>
       </c>
       <c r="D119" s="8">
-        <f>IF(B119&lt;5,"Freddo(&lt;5°C)",IF(B119&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B119&lt;10,"Freddo(&lt;10°C)",IF(B119&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E119" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
@@ -2135,7 +2510,10 @@
         <v>0</v>
       </c>
       <c r="D120" s="8">
-        <f>IF(B120&lt;5,"Freddo(&lt;5°C)",IF(B120&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B120&lt;10,"Freddo(&lt;10°C)",IF(B120&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E120" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
@@ -2149,7 +2527,10 @@
         <v>0</v>
       </c>
       <c r="D121" s="8">
-        <f>IF(B121&lt;5,"Freddo(&lt;5°C)",IF(B121&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B121&lt;10,"Freddo(&lt;10°C)",IF(B121&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E121" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
@@ -2163,7 +2544,10 @@
         <v>15.1</v>
       </c>
       <c r="D122" s="8">
-        <f>IF(B122&lt;5,"Freddo(&lt;5°C)",IF(B122&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B122&lt;10,"Freddo(&lt;10°C)",IF(B122&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E122" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
@@ -2177,7 +2561,10 @@
         <v>2.4</v>
       </c>
       <c r="D123" s="8">
-        <f>IF(B123&lt;5,"Freddo(&lt;5°C)",IF(B123&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B123&lt;10,"Freddo(&lt;10°C)",IF(B123&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E123" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
@@ -2191,7 +2578,10 @@
         <v>6</v>
       </c>
       <c r="D124" s="8">
-        <f>IF(B124&lt;5,"Freddo(&lt;5°C)",IF(B124&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B124&lt;10,"Freddo(&lt;10°C)",IF(B124&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E124" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
@@ -2205,7 +2595,10 @@
         <v>6.6</v>
       </c>
       <c r="D125" s="8">
-        <f>IF(B125&lt;5,"Freddo(&lt;5°C)",IF(B125&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B125&lt;10,"Freddo(&lt;10°C)",IF(B125&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E125" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
@@ -2216,10 +2609,13 @@
         <v>23.4</v>
       </c>
       <c r="C126" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D126" s="8">
-        <f>IF(B126&lt;5,"Freddo(&lt;5°C)",IF(B126&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B126&lt;10,"Freddo(&lt;10°C)",IF(B126&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E126" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
@@ -2233,7 +2629,10 @@
         <v>0</v>
       </c>
       <c r="D127" s="8">
-        <f>IF(B127&lt;5,"Freddo(&lt;5°C)",IF(B127&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B127&lt;10,"Freddo(&lt;10°C)",IF(B127&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E127" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
@@ -2247,7 +2646,10 @@
         <v>0</v>
       </c>
       <c r="D128" s="8">
-        <f>IF(B128&lt;5,"Freddo(&lt;5°C)",IF(B128&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B128&lt;10,"Freddo(&lt;10°C)",IF(B128&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E128" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
@@ -2261,7 +2663,10 @@
         <v>6.8</v>
       </c>
       <c r="D129" s="8">
-        <f>IF(B129&lt;5,"Freddo(&lt;5°C)",IF(B129&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B129&lt;10,"Freddo(&lt;10°C)",IF(B129&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E129" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
@@ -2275,7 +2680,10 @@
         <v>3</v>
       </c>
       <c r="D130" s="8">
-        <f>IF(B130&lt;5,"Freddo(&lt;5°C)",IF(B130&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B130&lt;10,"Freddo(&lt;10°C)",IF(B130&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E130" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
@@ -2289,7 +2697,10 @@
         <v>0</v>
       </c>
       <c r="D131" s="8">
-        <f>IF(B131&lt;5,"Freddo(&lt;5°C)",IF(B131&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B131&lt;10,"Freddo(&lt;10°C)",IF(B131&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E131" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
@@ -2303,7 +2714,10 @@
         <v>0</v>
       </c>
       <c r="D132" s="8">
-        <f>IF(B132&lt;5,"Freddo(&lt;5°C)",IF(B132&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B132&lt;10,"Freddo(&lt;10°C)",IF(B132&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E132" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
@@ -2317,7 +2731,10 @@
         <v>0</v>
       </c>
       <c r="D133" s="8">
-        <f>IF(B133&lt;5,"Freddo(&lt;5°C)",IF(B133&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B133&lt;10,"Freddo(&lt;10°C)",IF(B133&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E133" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
@@ -2331,7 +2748,10 @@
         <v>4</v>
       </c>
       <c r="D134" s="8">
-        <f>IF(B134&lt;5,"Freddo(&lt;5°C)",IF(B134&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B134&lt;10,"Freddo(&lt;10°C)",IF(B134&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E134" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
@@ -2345,7 +2765,10 @@
         <v>1.2</v>
       </c>
       <c r="D135" s="8">
-        <f>IF(B135&lt;5,"Freddo(&lt;5°C)",IF(B135&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B135&lt;10,"Freddo(&lt;10°C)",IF(B135&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E135" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
@@ -2359,7 +2782,10 @@
         <v>12.3</v>
       </c>
       <c r="D136" s="8">
-        <f>IF(B136&lt;5,"Freddo(&lt;5°C)",IF(B136&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B136&lt;10,"Freddo(&lt;10°C)",IF(B136&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E136" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
@@ -2370,10 +2796,13 @@
         <v>18.7</v>
       </c>
       <c r="C137" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D137" s="8">
-        <f>IF(B137&lt;5,"Freddo(&lt;5°C)",IF(B137&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B137&lt;10,"Freddo(&lt;10°C)",IF(B137&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E137" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
@@ -2384,10 +2813,13 @@
         <v>25.9</v>
       </c>
       <c r="C138" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D138" s="8">
-        <f>IF(B138&lt;5,"Freddo(&lt;5°C)",IF(B138&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B138&lt;10,"Freddo(&lt;10°C)",IF(B138&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E138" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
@@ -2401,7 +2833,10 @@
         <v>0</v>
       </c>
       <c r="D139" s="8">
-        <f>IF(B139&lt;5,"Freddo(&lt;5°C)",IF(B139&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B139&lt;10,"Freddo(&lt;10°C)",IF(B139&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E139" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
@@ -2415,7 +2850,10 @@
         <v>3.2</v>
       </c>
       <c r="D140" s="8">
-        <f>IF(B140&lt;5,"Freddo(&lt;5°C)",IF(B140&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B140&lt;10,"Freddo(&lt;10°C)",IF(B140&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E140" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
@@ -2426,10 +2864,13 @@
         <v>23.5</v>
       </c>
       <c r="C141" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D141" s="8">
-        <f>IF(B141&lt;5,"Freddo(&lt;5°C)",IF(B141&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B141&lt;10,"Freddo(&lt;10°C)",IF(B141&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E141" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
@@ -2443,7 +2884,10 @@
         <v>3.8</v>
       </c>
       <c r="D142" s="8">
-        <f>IF(B142&lt;5,"Freddo(&lt;5°C)",IF(B142&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B142&lt;10,"Freddo(&lt;10°C)",IF(B142&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E142" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
@@ -2457,7 +2901,10 @@
         <v>4.3</v>
       </c>
       <c r="D143" s="8">
-        <f>IF(B143&lt;5,"Freddo(&lt;5°C)",IF(B143&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B143&lt;10,"Freddo(&lt;10°C)",IF(B143&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E143" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
@@ -2471,7 +2918,10 @@
         <v>0</v>
       </c>
       <c r="D144" s="8">
-        <f>IF(B144&lt;5,"Freddo(&lt;5°C)",IF(B144&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B144&lt;10,"Freddo(&lt;10°C)",IF(B144&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E144" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
@@ -2485,7 +2935,10 @@
         <v>5.6</v>
       </c>
       <c r="D145" s="8">
-        <f>IF(B145&lt;5,"Freddo(&lt;5°C)",IF(B145&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B145&lt;10,"Freddo(&lt;10°C)",IF(B145&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E145" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
@@ -2496,10 +2949,13 @@
         <v>20.9</v>
       </c>
       <c r="C146" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D146" s="8">
-        <f>IF(B146&lt;5,"Freddo(&lt;5°C)",IF(B146&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B146&lt;10,"Freddo(&lt;10°C)",IF(B146&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E146" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
@@ -2513,7 +2969,10 @@
         <v>0</v>
       </c>
       <c r="D147" s="8">
-        <f>IF(B147&lt;5,"Freddo(&lt;5°C)",IF(B147&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B147&lt;10,"Freddo(&lt;10°C)",IF(B147&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E147" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
@@ -2527,7 +2986,10 @@
         <v>0</v>
       </c>
       <c r="D148" s="8">
-        <f>IF(B148&lt;5,"Freddo(&lt;5°C)",IF(B148&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B148&lt;10,"Freddo(&lt;10°C)",IF(B148&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E148" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
@@ -2541,7 +3003,10 @@
         <v>0</v>
       </c>
       <c r="D149" s="8">
-        <f>IF(B149&lt;5,"Freddo(&lt;5°C)",IF(B149&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B149&lt;10,"Freddo(&lt;10°C)",IF(B149&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E149" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
@@ -2555,7 +3020,10 @@
         <v>0</v>
       </c>
       <c r="D150" s="8">
-        <f>IF(B150&lt;5,"Freddo(&lt;5°C)",IF(B150&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B150&lt;10,"Freddo(&lt;10°C)",IF(B150&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E150" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
@@ -2569,7 +3037,10 @@
         <v>2.6</v>
       </c>
       <c r="D151" s="8">
-        <f>IF(B151&lt;5,"Freddo(&lt;5°C)",IF(B151&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B151&lt;10,"Freddo(&lt;10°C)",IF(B151&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E151" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
@@ -2583,7 +3054,10 @@
         <v>0</v>
       </c>
       <c r="D152" s="8">
-        <f>IF(B152&lt;5,"Freddo(&lt;5°C)",IF(B152&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B152&lt;10,"Freddo(&lt;10°C)",IF(B152&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E152" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
@@ -2597,7 +3071,10 @@
         <v>0</v>
       </c>
       <c r="D153" s="8">
-        <f>IF(B153&lt;5,"Freddo(&lt;5°C)",IF(B153&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B153&lt;10,"Freddo(&lt;10°C)",IF(B153&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E153" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
@@ -2611,7 +3088,10 @@
         <v>0</v>
       </c>
       <c r="D154" s="8">
-        <f>IF(B154&lt;5,"Freddo(&lt;5°C)",IF(B154&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B154&lt;10,"Freddo(&lt;10°C)",IF(B154&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E154" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
@@ -2625,7 +3105,10 @@
         <v>0</v>
       </c>
       <c r="D155" s="8">
-        <f>IF(B155&lt;5,"Freddo(&lt;5°C)",IF(B155&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B155&lt;10,"Freddo(&lt;10°C)",IF(B155&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E155" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
@@ -2639,7 +3122,10 @@
         <v>0</v>
       </c>
       <c r="D156" s="8">
-        <f>IF(B156&lt;5,"Freddo(&lt;5°C)",IF(B156&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B156&lt;10,"Freddo(&lt;10°C)",IF(B156&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E156" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
@@ -2653,7 +3139,10 @@
         <v>0</v>
       </c>
       <c r="D157" s="8">
-        <f>IF(B157&lt;5,"Freddo(&lt;5°C)",IF(B157&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B157&lt;10,"Freddo(&lt;10°C)",IF(B157&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E157" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
@@ -2667,7 +3156,10 @@
         <v>4.8</v>
       </c>
       <c r="D158" s="8">
-        <f>IF(B158&lt;5,"Freddo(&lt;5°C)",IF(B158&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B158&lt;10,"Freddo(&lt;10°C)",IF(B158&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E158" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
@@ -2681,7 +3173,10 @@
         <v>0</v>
       </c>
       <c r="D159" s="8">
-        <f>IF(B159&lt;5,"Freddo(&lt;5°C)",IF(B159&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B159&lt;10,"Freddo(&lt;10°C)",IF(B159&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E159" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
@@ -2695,7 +3190,10 @@
         <v>1.4</v>
       </c>
       <c r="D160" s="8">
-        <f>IF(B160&lt;5,"Freddo(&lt;5°C)",IF(B160&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B160&lt;10,"Freddo(&lt;10°C)",IF(B160&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E160" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
@@ -2709,7 +3207,10 @@
         <v>0</v>
       </c>
       <c r="D161" s="8">
-        <f>IF(B161&lt;5,"Freddo(&lt;5°C)",IF(B161&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B161&lt;10,"Freddo(&lt;10°C)",IF(B161&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E161" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
@@ -2723,7 +3224,10 @@
         <v>0</v>
       </c>
       <c r="D162" s="8">
-        <f>IF(B162&lt;5,"Freddo(&lt;5°C)",IF(B162&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B162&lt;10,"Freddo(&lt;10°C)",IF(B162&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E162" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
@@ -2737,7 +3241,10 @@
         <v>0</v>
       </c>
       <c r="D163" s="8">
-        <f>IF(B163&lt;5,"Freddo(&lt;5°C)",IF(B163&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B163&lt;10,"Freddo(&lt;10°C)",IF(B163&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E163" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
@@ -2751,7 +3258,10 @@
         <v>14</v>
       </c>
       <c r="D164" s="8">
-        <f>IF(B164&lt;5,"Freddo(&lt;5°C)",IF(B164&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B164&lt;10,"Freddo(&lt;10°C)",IF(B164&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E164" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
@@ -2765,7 +3275,10 @@
         <v>0</v>
       </c>
       <c r="D165" s="8">
-        <f>IF(B165&lt;5,"Freddo(&lt;5°C)",IF(B165&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B165&lt;10,"Freddo(&lt;10°C)",IF(B165&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E165" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
@@ -2779,7 +3292,10 @@
         <v>0</v>
       </c>
       <c r="D166" s="8">
-        <f>IF(B166&lt;5,"Freddo(&lt;5°C)",IF(B166&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B166&lt;10,"Freddo(&lt;10°C)",IF(B166&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E166" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
@@ -2793,7 +3309,10 @@
         <v>0</v>
       </c>
       <c r="D167" s="8">
-        <f>IF(B167&lt;5,"Freddo(&lt;5°C)",IF(B167&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B167&lt;10,"Freddo(&lt;10°C)",IF(B167&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E167" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
@@ -2807,7 +3326,10 @@
         <v>8.6</v>
       </c>
       <c r="D168" s="8">
-        <f>IF(B168&lt;5,"Freddo(&lt;5°C)",IF(B168&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B168&lt;10,"Freddo(&lt;10°C)",IF(B168&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E168" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
@@ -2821,7 +3343,10 @@
         <v>0</v>
       </c>
       <c r="D169" s="8">
-        <f>IF(B169&lt;5,"Freddo(&lt;5°C)",IF(B169&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B169&lt;10,"Freddo(&lt;10°C)",IF(B169&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E169" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
@@ -2835,7 +3360,10 @@
         <v>0</v>
       </c>
       <c r="D170" s="8">
-        <f>IF(B170&lt;5,"Freddo(&lt;5°C)",IF(B170&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B170&lt;10,"Freddo(&lt;10°C)",IF(B170&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E170" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
@@ -2849,7 +3377,10 @@
         <v>0</v>
       </c>
       <c r="D171" s="8">
-        <f>IF(B171&lt;5,"Freddo(&lt;5°C)",IF(B171&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B171&lt;10,"Freddo(&lt;10°C)",IF(B171&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E171" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
@@ -2863,7 +3394,10 @@
         <v>0</v>
       </c>
       <c r="D172" s="8">
-        <f>IF(B172&lt;5,"Freddo(&lt;5°C)",IF(B172&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B172&lt;10,"Freddo(&lt;10°C)",IF(B172&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E172" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
@@ -2877,7 +3411,10 @@
         <v>0</v>
       </c>
       <c r="D173" s="8">
-        <f>IF(B173&lt;5,"Freddo(&lt;5°C)",IF(B173&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B173&lt;10,"Freddo(&lt;10°C)",IF(B173&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E173" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
@@ -2891,7 +3428,10 @@
         <v>0</v>
       </c>
       <c r="D174" s="8">
-        <f>IF(B174&lt;5,"Freddo(&lt;5°C)",IF(B174&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B174&lt;10,"Freddo(&lt;10°C)",IF(B174&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E174" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
@@ -2905,7 +3445,10 @@
         <v>0</v>
       </c>
       <c r="D175" s="8">
-        <f>IF(B175&lt;5,"Freddo(&lt;5°C)",IF(B175&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B175&lt;10,"Freddo(&lt;10°C)",IF(B175&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E175" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
@@ -2919,7 +3462,10 @@
         <v>0</v>
       </c>
       <c r="D176" s="8">
-        <f>IF(B176&lt;5,"Freddo(&lt;5°C)",IF(B176&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B176&lt;10,"Freddo(&lt;10°C)",IF(B176&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E176" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
@@ -2933,7 +3479,10 @@
         <v>0</v>
       </c>
       <c r="D177" s="8">
-        <f>IF(B177&lt;5,"Freddo(&lt;5°C)",IF(B177&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B177&lt;10,"Freddo(&lt;10°C)",IF(B177&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E177" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
@@ -2947,7 +3496,10 @@
         <v>0</v>
       </c>
       <c r="D178" s="8">
-        <f>IF(B178&lt;5,"Freddo(&lt;5°C)",IF(B178&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B178&lt;10,"Freddo(&lt;10°C)",IF(B178&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E178" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
@@ -2961,7 +3513,10 @@
         <v>0</v>
       </c>
       <c r="D179" s="8">
-        <f>IF(B179&lt;5,"Freddo(&lt;5°C)",IF(B179&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B179&lt;10,"Freddo(&lt;10°C)",IF(B179&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E179" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
@@ -2975,7 +3530,10 @@
         <v>0</v>
       </c>
       <c r="D180" s="8">
-        <f>IF(B180&lt;5,"Freddo(&lt;5°C)",IF(B180&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B180&lt;10,"Freddo(&lt;10°C)",IF(B180&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E180" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
@@ -2989,7 +3547,10 @@
         <v>0</v>
       </c>
       <c r="D181" s="8">
-        <f>IF(B181&lt;5,"Freddo(&lt;5°C)",IF(B181&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B181&lt;10,"Freddo(&lt;10°C)",IF(B181&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E181" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
@@ -3003,7 +3564,10 @@
         <v>2.6</v>
       </c>
       <c r="D182" s="8">
-        <f>IF(B182&lt;5,"Freddo(&lt;5°C)",IF(B182&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B182&lt;10,"Freddo(&lt;10°C)",IF(B182&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E182" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
@@ -3017,7 +3581,10 @@
         <v>8.2</v>
       </c>
       <c r="D183" s="8">
-        <f>IF(B183&lt;5,"Freddo(&lt;5°C)",IF(B183&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B183&lt;10,"Freddo(&lt;10°C)",IF(B183&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E183" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
@@ -3031,7 +3598,10 @@
         <v>0</v>
       </c>
       <c r="D184" s="8">
-        <f>IF(B184&lt;5,"Freddo(&lt;5°C)",IF(B184&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B184&lt;10,"Freddo(&lt;10°C)",IF(B184&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E184" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
@@ -3045,7 +3615,10 @@
         <v>0</v>
       </c>
       <c r="D185" s="8">
-        <f>IF(B185&lt;5,"Freddo(&lt;5°C)",IF(B185&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B185&lt;10,"Freddo(&lt;10°C)",IF(B185&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E185" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
@@ -3059,7 +3632,10 @@
         <v>0</v>
       </c>
       <c r="D186" s="8">
-        <f>IF(B186&lt;5,"Freddo(&lt;5°C)",IF(B186&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B186&lt;10,"Freddo(&lt;10°C)",IF(B186&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E186" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
@@ -3073,7 +3649,10 @@
         <v>3</v>
       </c>
       <c r="D187" s="8">
-        <f>IF(B187&lt;5,"Freddo(&lt;5°C)",IF(B187&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B187&lt;10,"Freddo(&lt;10°C)",IF(B187&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E187" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
@@ -3087,7 +3666,10 @@
         <v>0</v>
       </c>
       <c r="D188" s="8">
-        <f>IF(B188&lt;5,"Freddo(&lt;5°C)",IF(B188&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B188&lt;10,"Freddo(&lt;10°C)",IF(B188&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E188" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
@@ -3101,7 +3683,10 @@
         <v>0</v>
       </c>
       <c r="D189" s="8">
-        <f>IF(B189&lt;5,"Freddo(&lt;5°C)",IF(B189&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B189&lt;10,"Freddo(&lt;10°C)",IF(B189&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E189" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
@@ -3115,7 +3700,10 @@
         <v>0</v>
       </c>
       <c r="D190" s="8">
-        <f>IF(B190&lt;5,"Freddo(&lt;5°C)",IF(B190&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B190&lt;10,"Freddo(&lt;10°C)",IF(B190&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E190" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
@@ -3129,7 +3717,10 @@
         <v>0</v>
       </c>
       <c r="D191" s="8">
-        <f>IF(B191&lt;5,"Freddo(&lt;5°C)",IF(B191&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B191&lt;10,"Freddo(&lt;10°C)",IF(B191&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E191" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
@@ -3143,7 +3734,10 @@
         <v>0</v>
       </c>
       <c r="D192" s="8">
-        <f>IF(B192&lt;5,"Freddo(&lt;5°C)",IF(B192&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B192&lt;10,"Freddo(&lt;10°C)",IF(B192&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E192" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
@@ -3157,7 +3751,10 @@
         <v>1.6</v>
       </c>
       <c r="D193" s="8">
-        <f>IF(B193&lt;5,"Freddo(&lt;5°C)",IF(B193&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B193&lt;10,"Freddo(&lt;10°C)",IF(B193&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E193" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
@@ -3168,10 +3765,13 @@
         <v>12.9</v>
       </c>
       <c r="C194" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D194" s="8">
-        <f>IF(B194&lt;5,"Freddo(&lt;5°C)",IF(B194&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B194&lt;10,"Freddo(&lt;10°C)",IF(B194&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E194" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
@@ -3185,7 +3785,10 @@
         <v>0</v>
       </c>
       <c r="D195" s="8">
-        <f>IF(B195&lt;5,"Freddo(&lt;5°C)",IF(B195&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B195&lt;10,"Freddo(&lt;10°C)",IF(B195&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E195" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
@@ -3199,7 +3802,10 @@
         <v>0</v>
       </c>
       <c r="D196" s="8">
-        <f>IF(B196&lt;5,"Freddo(&lt;5°C)",IF(B196&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B196&lt;10,"Freddo(&lt;10°C)",IF(B196&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E196" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
@@ -3213,7 +3819,10 @@
         <v>10.7</v>
       </c>
       <c r="D197" s="8">
-        <f>IF(B197&lt;5,"Freddo(&lt;5°C)",IF(B197&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B197&lt;10,"Freddo(&lt;10°C)",IF(B197&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E197" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
@@ -3227,7 +3836,10 @@
         <v>0</v>
       </c>
       <c r="D198" s="8">
-        <f>IF(B198&lt;5,"Freddo(&lt;5°C)",IF(B198&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B198&lt;10,"Freddo(&lt;10°C)",IF(B198&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E198" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
@@ -3241,7 +3853,10 @@
         <v>8.2</v>
       </c>
       <c r="D199" s="8">
-        <f>IF(B199&lt;5,"Freddo(&lt;5°C)",IF(B199&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B199&lt;10,"Freddo(&lt;10°C)",IF(B199&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E199" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
@@ -3255,7 +3870,10 @@
         <v>0</v>
       </c>
       <c r="D200" s="8">
-        <f>IF(B200&lt;5,"Freddo(&lt;5°C)",IF(B200&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B200&lt;10,"Freddo(&lt;10°C)",IF(B200&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E200" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
@@ -3269,7 +3887,10 @@
         <v>0</v>
       </c>
       <c r="D201" s="8">
-        <f>IF(B201&lt;5,"Freddo(&lt;5°C)",IF(B201&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B201&lt;10,"Freddo(&lt;10°C)",IF(B201&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E201" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
@@ -3283,7 +3904,10 @@
         <v>1.5</v>
       </c>
       <c r="D202" s="8">
-        <f>IF(B202&lt;5,"Freddo(&lt;5°C)",IF(B202&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B202&lt;10,"Freddo(&lt;10°C)",IF(B202&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E202" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
@@ -3297,7 +3921,10 @@
         <v>0</v>
       </c>
       <c r="D203" s="8">
-        <f>IF(B203&lt;5,"Freddo(&lt;5°C)",IF(B203&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B203&lt;10,"Freddo(&lt;10°C)",IF(B203&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E203" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
@@ -3311,7 +3938,10 @@
         <v>0</v>
       </c>
       <c r="D204" s="8">
-        <f>IF(B204&lt;5,"Freddo(&lt;5°C)",IF(B204&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B204&lt;10,"Freddo(&lt;10°C)",IF(B204&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E204" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
@@ -3325,7 +3955,10 @@
         <v>0</v>
       </c>
       <c r="D205" s="8">
-        <f>IF(B205&lt;5,"Freddo(&lt;5°C)",IF(B205&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B205&lt;10,"Freddo(&lt;10°C)",IF(B205&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E205" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
@@ -3339,7 +3972,10 @@
         <v>12.2</v>
       </c>
       <c r="D206" s="8">
-        <f>IF(B206&lt;5,"Freddo(&lt;5°C)",IF(B206&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B206&lt;10,"Freddo(&lt;10°C)",IF(B206&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E206" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
@@ -3353,7 +3989,10 @@
         <v>0</v>
       </c>
       <c r="D207" s="8">
-        <f>IF(B207&lt;5,"Freddo(&lt;5°C)",IF(B207&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B207&lt;10,"Freddo(&lt;10°C)",IF(B207&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E207" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
@@ -3367,7 +4006,10 @@
         <v>0</v>
       </c>
       <c r="D208" s="8">
-        <f>IF(B208&lt;5,"Freddo(&lt;5°C)",IF(B208&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B208&lt;10,"Freddo(&lt;10°C)",IF(B208&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E208" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
@@ -3381,7 +4023,10 @@
         <v>0</v>
       </c>
       <c r="D209" s="8">
-        <f>IF(B209&lt;5,"Freddo(&lt;5°C)",IF(B209&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B209&lt;10,"Freddo(&lt;10°C)",IF(B209&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E209" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
@@ -3395,7 +4040,10 @@
         <v>0</v>
       </c>
       <c r="D210" s="8">
-        <f>IF(B210&lt;5,"Freddo(&lt;5°C)",IF(B210&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B210&lt;10,"Freddo(&lt;10°C)",IF(B210&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E210" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
@@ -3409,7 +4057,10 @@
         <v>0</v>
       </c>
       <c r="D211" s="8">
-        <f>IF(B211&lt;5,"Freddo(&lt;5°C)",IF(B211&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B211&lt;10,"Freddo(&lt;10°C)",IF(B211&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E211" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
@@ -3423,7 +4074,10 @@
         <v>3.8</v>
       </c>
       <c r="D212" s="8">
-        <f>IF(B212&lt;5,"Freddo(&lt;5°C)",IF(B212&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B212&lt;10,"Freddo(&lt;10°C)",IF(B212&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E212" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
@@ -3437,7 +4091,10 @@
         <v>7.4</v>
       </c>
       <c r="D213" s="8">
-        <f>IF(B213&lt;5,"Freddo(&lt;5°C)",IF(B213&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B213&lt;10,"Freddo(&lt;10°C)",IF(B213&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E213" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
@@ -3451,7 +4108,10 @@
         <v>0</v>
       </c>
       <c r="D214" s="8">
-        <f>IF(B214&lt;5,"Freddo(&lt;5°C)",IF(B214&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B214&lt;10,"Freddo(&lt;10°C)",IF(B214&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E214" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
@@ -3465,7 +4125,10 @@
         <v>1.7</v>
       </c>
       <c r="D215" s="8">
-        <f>IF(B215&lt;5,"Freddo(&lt;5°C)",IF(B215&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B215&lt;10,"Freddo(&lt;10°C)",IF(B215&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E215" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
@@ -3479,7 +4142,10 @@
         <v>3.3</v>
       </c>
       <c r="D216" s="8">
-        <f>IF(B216&lt;5,"Freddo(&lt;5°C)",IF(B216&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B216&lt;10,"Freddo(&lt;10°C)",IF(B216&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E216" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
@@ -3493,7 +4159,10 @@
         <v>4.9</v>
       </c>
       <c r="D217" s="8">
-        <f>IF(B217&lt;5,"Freddo(&lt;5°C)",IF(B217&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B217&lt;10,"Freddo(&lt;10°C)",IF(B217&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E217" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
@@ -3507,7 +4176,10 @@
         <v>7.4</v>
       </c>
       <c r="D218" s="8">
-        <f>IF(B218&lt;5,"Freddo(&lt;5°C)",IF(B218&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B218&lt;10,"Freddo(&lt;10°C)",IF(B218&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E218" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
@@ -3521,7 +4193,10 @@
         <v>0</v>
       </c>
       <c r="D219" s="8">
-        <f>IF(B219&lt;5,"Freddo(&lt;5°C)",IF(B219&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B219&lt;10,"Freddo(&lt;10°C)",IF(B219&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E219" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
@@ -3535,7 +4210,10 @@
         <v>2.5</v>
       </c>
       <c r="D220" s="8">
-        <f>IF(B220&lt;5,"Freddo(&lt;5°C)",IF(B220&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B220&lt;10,"Freddo(&lt;10°C)",IF(B220&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E220" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
@@ -3546,10 +4224,13 @@
         <v>7.1</v>
       </c>
       <c r="C221" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D221" s="8">
-        <f>IF(B221&lt;5,"Freddo(&lt;5°C)",IF(B221&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B221&lt;10,"Freddo(&lt;10°C)",IF(B221&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E221" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
@@ -3563,7 +4244,10 @@
         <v>8.3</v>
       </c>
       <c r="D222" s="8">
-        <f>IF(B222&lt;5,"Freddo(&lt;5°C)",IF(B222&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B222&lt;10,"Freddo(&lt;10°C)",IF(B222&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E222" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
@@ -3577,7 +4261,10 @@
         <v>1.8</v>
       </c>
       <c r="D223" s="8">
-        <f>IF(B223&lt;5,"Freddo(&lt;5°C)",IF(B223&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B223&lt;10,"Freddo(&lt;10°C)",IF(B223&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E223" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
@@ -3591,7 +4278,10 @@
         <v>0</v>
       </c>
       <c r="D224" s="8">
-        <f>IF(B224&lt;5,"Freddo(&lt;5°C)",IF(B224&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B224&lt;10,"Freddo(&lt;10°C)",IF(B224&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E224" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
@@ -3605,7 +4295,10 @@
         <v>0</v>
       </c>
       <c r="D225" s="8">
-        <f>IF(B225&lt;5,"Freddo(&lt;5°C)",IF(B225&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B225&lt;10,"Freddo(&lt;10°C)",IF(B225&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E225" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
@@ -3613,13 +4306,16 @@
         <v>45151</v>
       </c>
       <c r="B226" s="6">
-        <v>10.4</v>
+        <v>9.4</v>
       </c>
       <c r="C226" s="7">
         <v>0</v>
       </c>
       <c r="D226" s="8">
-        <f>IF(B226&lt;5,"Freddo(&lt;5°C)",IF(B226&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B226&lt;10,"Freddo(&lt;10°C)",IF(B226&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E226" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
@@ -3627,13 +4323,16 @@
         <v>45152</v>
       </c>
       <c r="B227" s="6">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="C227" s="7">
         <v>0</v>
       </c>
       <c r="D227" s="8">
-        <f>IF(B227&lt;5,"Freddo(&lt;5°C)",IF(B227&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B227&lt;10,"Freddo(&lt;10°C)",IF(B227&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E227" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
@@ -3641,13 +4340,16 @@
         <v>45153</v>
       </c>
       <c r="B228" s="6">
-        <v>10.2</v>
+        <v>9.2</v>
       </c>
       <c r="C228" s="7">
         <v>0</v>
       </c>
       <c r="D228" s="8">
-        <f>IF(B228&lt;5,"Freddo(&lt;5°C)",IF(B228&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B228&lt;10,"Freddo(&lt;10°C)",IF(B228&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E228" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
@@ -3661,7 +4363,10 @@
         <v>1.8</v>
       </c>
       <c r="D229" s="8">
-        <f>IF(B229&lt;5,"Freddo(&lt;5°C)",IF(B229&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B229&lt;10,"Freddo(&lt;10°C)",IF(B229&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E229" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
@@ -3675,7 +4380,10 @@
         <v>3.5</v>
       </c>
       <c r="D230" s="8">
-        <f>IF(B230&lt;5,"Freddo(&lt;5°C)",IF(B230&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B230&lt;10,"Freddo(&lt;10°C)",IF(B230&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E230" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
@@ -3689,7 +4397,10 @@
         <v>0</v>
       </c>
       <c r="D231" s="8">
-        <f>IF(B231&lt;5,"Freddo(&lt;5°C)",IF(B231&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B231&lt;10,"Freddo(&lt;10°C)",IF(B231&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E231" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
@@ -3703,7 +4414,10 @@
         <v>8.2</v>
       </c>
       <c r="D232" s="8">
-        <f>IF(B232&lt;5,"Freddo(&lt;5°C)",IF(B232&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B232&lt;10,"Freddo(&lt;10°C)",IF(B232&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E232" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
@@ -3717,7 +4431,10 @@
         <v>5</v>
       </c>
       <c r="D233" s="8">
-        <f>IF(B233&lt;5,"Freddo(&lt;5°C)",IF(B233&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B233&lt;10,"Freddo(&lt;10°C)",IF(B233&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E233" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
@@ -3731,7 +4448,10 @@
         <v>0</v>
       </c>
       <c r="D234" s="8">
-        <f>IF(B234&lt;5,"Freddo(&lt;5°C)",IF(B234&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B234&lt;10,"Freddo(&lt;10°C)",IF(B234&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E234" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
@@ -3745,7 +4465,10 @@
         <v>0</v>
       </c>
       <c r="D235" s="8">
-        <f>IF(B235&lt;5,"Freddo(&lt;5°C)",IF(B235&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B235&lt;10,"Freddo(&lt;10°C)",IF(B235&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E235" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
@@ -3759,7 +4482,10 @@
         <v>0</v>
       </c>
       <c r="D236" s="8">
-        <f>IF(B236&lt;5,"Freddo(&lt;5°C)",IF(B236&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B236&lt;10,"Freddo(&lt;10°C)",IF(B236&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E236" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
@@ -3773,7 +4499,10 @@
         <v>11.8</v>
       </c>
       <c r="D237" s="8">
-        <f>IF(B237&lt;5,"Freddo(&lt;5°C)",IF(B237&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B237&lt;10,"Freddo(&lt;10°C)",IF(B237&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E237" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
@@ -3787,7 +4516,10 @@
         <v>0</v>
       </c>
       <c r="D238" s="8">
-        <f>IF(B238&lt;5,"Freddo(&lt;5°C)",IF(B238&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B238&lt;10,"Freddo(&lt;10°C)",IF(B238&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E238" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
@@ -3801,7 +4533,10 @@
         <v>0</v>
       </c>
       <c r="D239" s="8">
-        <f>IF(B239&lt;5,"Freddo(&lt;5°C)",IF(B239&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B239&lt;10,"Freddo(&lt;10°C)",IF(B239&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E239" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
@@ -3815,7 +4550,10 @@
         <v>0</v>
       </c>
       <c r="D240" s="8">
-        <f>IF(B240&lt;5,"Freddo(&lt;5°C)",IF(B240&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B240&lt;10,"Freddo(&lt;10°C)",IF(B240&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E240" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
@@ -3829,7 +4567,10 @@
         <v>5.3</v>
       </c>
       <c r="D241" s="8">
-        <f>IF(B241&lt;5,"Freddo(&lt;5°C)",IF(B241&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B241&lt;10,"Freddo(&lt;10°C)",IF(B241&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E241" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
@@ -3843,7 +4584,10 @@
         <v>0.9</v>
       </c>
       <c r="D242" s="8">
-        <f>IF(B242&lt;5,"Freddo(&lt;5°C)",IF(B242&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B242&lt;10,"Freddo(&lt;10°C)",IF(B242&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E242" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
@@ -3857,7 +4601,10 @@
         <v>6.9</v>
       </c>
       <c r="D243" s="8">
-        <f>IF(B243&lt;5,"Freddo(&lt;5°C)",IF(B243&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B243&lt;10,"Freddo(&lt;10°C)",IF(B243&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E243" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
@@ -3871,7 +4618,10 @@
         <v>0</v>
       </c>
       <c r="D244" s="8">
-        <f>IF(B244&lt;5,"Freddo(&lt;5°C)",IF(B244&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B244&lt;10,"Freddo(&lt;10°C)",IF(B244&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E244" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
@@ -3885,7 +4635,10 @@
         <v>0</v>
       </c>
       <c r="D245" s="8">
-        <f>IF(B245&lt;5,"Freddo(&lt;5°C)",IF(B245&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B245&lt;10,"Freddo(&lt;10°C)",IF(B245&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E245" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
@@ -3899,7 +4652,10 @@
         <v>0</v>
       </c>
       <c r="D246" s="8">
-        <f>IF(B246&lt;5,"Freddo(&lt;5°C)",IF(B246&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B246&lt;10,"Freddo(&lt;10°C)",IF(B246&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E246" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
@@ -3913,7 +4669,10 @@
         <v>9.3</v>
       </c>
       <c r="D247" s="8">
-        <f>IF(B247&lt;5,"Freddo(&lt;5°C)",IF(B247&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B247&lt;10,"Freddo(&lt;10°C)",IF(B247&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E247" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
@@ -3927,7 +4686,10 @@
         <v>0</v>
       </c>
       <c r="D248" s="8">
-        <f>IF(B248&lt;5,"Freddo(&lt;5°C)",IF(B248&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B248&lt;10,"Freddo(&lt;10°C)",IF(B248&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E248" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
@@ -3941,7 +4703,10 @@
         <v>0</v>
       </c>
       <c r="D249" s="8">
-        <f>IF(B249&lt;5,"Freddo(&lt;5°C)",IF(B249&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B249&lt;10,"Freddo(&lt;10°C)",IF(B249&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E249" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
@@ -3955,7 +4720,10 @@
         <v>0</v>
       </c>
       <c r="D250" s="8">
-        <f>IF(B250&lt;5,"Freddo(&lt;5°C)",IF(B250&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B250&lt;10,"Freddo(&lt;10°C)",IF(B250&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E250" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
@@ -3969,7 +4737,10 @@
         <v>11</v>
       </c>
       <c r="D251" s="8">
-        <f>IF(B251&lt;5,"Freddo(&lt;5°C)",IF(B251&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B251&lt;10,"Freddo(&lt;10°C)",IF(B251&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E251" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
@@ -3983,7 +4754,10 @@
         <v>0</v>
       </c>
       <c r="D252" s="8">
-        <f>IF(B252&lt;5,"Freddo(&lt;5°C)",IF(B252&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B252&lt;10,"Freddo(&lt;10°C)",IF(B252&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E252" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
@@ -3997,7 +4771,10 @@
         <v>0</v>
       </c>
       <c r="D253" s="8">
-        <f>IF(B253&lt;5,"Freddo(&lt;5°C)",IF(B253&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B253&lt;10,"Freddo(&lt;10°C)",IF(B253&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E253" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
@@ -4011,7 +4788,10 @@
         <v>3.8</v>
       </c>
       <c r="D254" s="8">
-        <f>IF(B254&lt;5,"Freddo(&lt;5°C)",IF(B254&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B254&lt;10,"Freddo(&lt;10°C)",IF(B254&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E254" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
@@ -4025,7 +4805,10 @@
         <v>0</v>
       </c>
       <c r="D255" s="8">
-        <f>IF(B255&lt;5,"Freddo(&lt;5°C)",IF(B255&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B255&lt;10,"Freddo(&lt;10°C)",IF(B255&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E255" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
@@ -4039,7 +4822,10 @@
         <v>0</v>
       </c>
       <c r="D256" s="8">
-        <f>IF(B256&lt;5,"Freddo(&lt;5°C)",IF(B256&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B256&lt;10,"Freddo(&lt;10°C)",IF(B256&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E256" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
@@ -4053,7 +4839,10 @@
         <v>4.8</v>
       </c>
       <c r="D257" s="8">
-        <f>IF(B257&lt;5,"Freddo(&lt;5°C)",IF(B257&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B257&lt;10,"Freddo(&lt;10°C)",IF(B257&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E257" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
@@ -4067,7 +4856,10 @@
         <v>0</v>
       </c>
       <c r="D258" s="8">
-        <f>IF(B258&lt;5,"Freddo(&lt;5°C)",IF(B258&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B258&lt;10,"Freddo(&lt;10°C)",IF(B258&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E258" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
@@ -4081,7 +4873,10 @@
         <v>3.3</v>
       </c>
       <c r="D259" s="8">
-        <f>IF(B259&lt;5,"Freddo(&lt;5°C)",IF(B259&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B259&lt;10,"Freddo(&lt;10°C)",IF(B259&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E259" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
@@ -4095,7 +4890,10 @@
         <v>0</v>
       </c>
       <c r="D260" s="8">
-        <f>IF(B260&lt;5,"Freddo(&lt;5°C)",IF(B260&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B260&lt;10,"Freddo(&lt;10°C)",IF(B260&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E260" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
@@ -4109,7 +4907,10 @@
         <v>0</v>
       </c>
       <c r="D261" s="8">
-        <f>IF(B261&lt;5,"Freddo(&lt;5°C)",IF(B261&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B261&lt;10,"Freddo(&lt;10°C)",IF(B261&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E261" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
@@ -4123,7 +4924,10 @@
         <v>0</v>
       </c>
       <c r="D262" s="8">
-        <f>IF(B262&lt;5,"Freddo(&lt;5°C)",IF(B262&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B262&lt;10,"Freddo(&lt;10°C)",IF(B262&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E262" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
@@ -4137,7 +4941,10 @@
         <v>1.3</v>
       </c>
       <c r="D263" s="8">
-        <f>IF(B263&lt;5,"Freddo(&lt;5°C)",IF(B263&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B263&lt;10,"Freddo(&lt;10°C)",IF(B263&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E263" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
@@ -4148,10 +4955,13 @@
         <v>3.4</v>
       </c>
       <c r="C264" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D264" s="8">
-        <f>IF(B264&lt;5,"Freddo(&lt;5°C)",IF(B264&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B264&lt;10,"Freddo(&lt;10°C)",IF(B264&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E264" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
@@ -4165,7 +4975,10 @@
         <v>4.9</v>
       </c>
       <c r="D265" s="8">
-        <f>IF(B265&lt;5,"Freddo(&lt;5°C)",IF(B265&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B265&lt;10,"Freddo(&lt;10°C)",IF(B265&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E265" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
@@ -4179,7 +4992,10 @@
         <v>0</v>
       </c>
       <c r="D266" s="8">
-        <f>IF(B266&lt;5,"Freddo(&lt;5°C)",IF(B266&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B266&lt;10,"Freddo(&lt;10°C)",IF(B266&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E266" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
@@ -4193,7 +5009,10 @@
         <v>0</v>
       </c>
       <c r="D267" s="8">
-        <f>IF(B267&lt;5,"Freddo(&lt;5°C)",IF(B267&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B267&lt;10,"Freddo(&lt;10°C)",IF(B267&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E267" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
@@ -4207,7 +5026,10 @@
         <v>0</v>
       </c>
       <c r="D268" s="8">
-        <f>IF(B268&lt;5,"Freddo(&lt;5°C)",IF(B268&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B268&lt;10,"Freddo(&lt;10°C)",IF(B268&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E268" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
@@ -4221,7 +5043,10 @@
         <v>0</v>
       </c>
       <c r="D269" s="8">
-        <f>IF(B269&lt;5,"Freddo(&lt;5°C)",IF(B269&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B269&lt;10,"Freddo(&lt;10°C)",IF(B269&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E269" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
@@ -4235,7 +5060,10 @@
         <v>9</v>
       </c>
       <c r="D270" s="8">
-        <f>IF(B270&lt;5,"Freddo(&lt;5°C)",IF(B270&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B270&lt;10,"Freddo(&lt;10°C)",IF(B270&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E270" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
@@ -4249,7 +5077,10 @@
         <v>0</v>
       </c>
       <c r="D271" s="8">
-        <f>IF(B271&lt;5,"Freddo(&lt;5°C)",IF(B271&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B271&lt;10,"Freddo(&lt;10°C)",IF(B271&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E271" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
@@ -4263,7 +5094,10 @@
         <v>1.8</v>
       </c>
       <c r="D272" s="8">
-        <f>IF(B272&lt;5,"Freddo(&lt;5°C)",IF(B272&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B272&lt;10,"Freddo(&lt;10°C)",IF(B272&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E272" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
@@ -4277,7 +5111,10 @@
         <v>2.2</v>
       </c>
       <c r="D273" s="8">
-        <f>IF(B273&lt;5,"Freddo(&lt;5°C)",IF(B273&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B273&lt;10,"Freddo(&lt;10°C)",IF(B273&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E273" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
@@ -4291,7 +5128,10 @@
         <v>0</v>
       </c>
       <c r="D274" s="8">
-        <f>IF(B274&lt;5,"Freddo(&lt;5°C)",IF(B274&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B274&lt;10,"Freddo(&lt;10°C)",IF(B274&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E274" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
@@ -4305,7 +5145,10 @@
         <v>0</v>
       </c>
       <c r="D275" s="8">
-        <f>IF(B275&lt;5,"Freddo(&lt;5°C)",IF(B275&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B275&lt;10,"Freddo(&lt;10°C)",IF(B275&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E275" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
@@ -4316,10 +5159,13 @@
         <v>3.2</v>
       </c>
       <c r="C276" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D276" s="8">
-        <f>IF(B276&lt;5,"Freddo(&lt;5°C)",IF(B276&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B276&lt;10,"Freddo(&lt;10°C)",IF(B276&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E276" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
@@ -4333,7 +5179,10 @@
         <v>13.4</v>
       </c>
       <c r="D277" s="8">
-        <f>IF(B277&lt;5,"Freddo(&lt;5°C)",IF(B277&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B277&lt;10,"Freddo(&lt;10°C)",IF(B277&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E277" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
@@ -4344,10 +5193,13 @@
         <v>5.8</v>
       </c>
       <c r="C278" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D278" s="8">
-        <f>IF(B278&lt;5,"Freddo(&lt;5°C)",IF(B278&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B278&lt;10,"Freddo(&lt;10°C)",IF(B278&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E278" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
@@ -4361,7 +5213,10 @@
         <v>0</v>
       </c>
       <c r="D279" s="8">
-        <f>IF(B279&lt;5,"Freddo(&lt;5°C)",IF(B279&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B279&lt;10,"Freddo(&lt;10°C)",IF(B279&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E279" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
@@ -4375,7 +5230,10 @@
         <v>0</v>
       </c>
       <c r="D280" s="8">
-        <f>IF(B280&lt;5,"Freddo(&lt;5°C)",IF(B280&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B280&lt;10,"Freddo(&lt;10°C)",IF(B280&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E280" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
@@ -4389,7 +5247,10 @@
         <v>0</v>
       </c>
       <c r="D281" s="8">
-        <f>IF(B281&lt;5,"Freddo(&lt;5°C)",IF(B281&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B281&lt;10,"Freddo(&lt;10°C)",IF(B281&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E281" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="18.75">
@@ -4403,7 +5264,10 @@
         <v>0</v>
       </c>
       <c r="D282" s="8">
-        <f>IF(B282&lt;5,"Freddo(&lt;5°C)",IF(B282&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B282&lt;10,"Freddo(&lt;10°C)",IF(B282&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E282" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="18.75">
@@ -4417,7 +5281,10 @@
         <v>0</v>
       </c>
       <c r="D283" s="8">
-        <f>IF(B283&lt;5,"Freddo(&lt;5°C)",IF(B283&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B283&lt;10,"Freddo(&lt;10°C)",IF(B283&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E283" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="18.75">
@@ -4431,7 +5298,10 @@
         <v>1</v>
       </c>
       <c r="D284" s="8">
-        <f>IF(B284&lt;5,"Freddo(&lt;5°C)",IF(B284&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B284&lt;10,"Freddo(&lt;10°C)",IF(B284&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E284" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="18.75">
@@ -4445,7 +5315,10 @@
         <v>10.2</v>
       </c>
       <c r="D285" s="8">
-        <f>IF(B285&lt;5,"Freddo(&lt;5°C)",IF(B285&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B285&lt;10,"Freddo(&lt;10°C)",IF(B285&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E285" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="18.75">
@@ -4459,7 +5332,10 @@
         <v>3</v>
       </c>
       <c r="D286" s="8">
-        <f>IF(B286&lt;5,"Freddo(&lt;5°C)",IF(B286&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B286&lt;10,"Freddo(&lt;10°C)",IF(B286&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E286" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="18.75">
@@ -4473,7 +5349,10 @@
         <v>1.8</v>
       </c>
       <c r="D287" s="8">
-        <f>IF(B287&lt;5,"Freddo(&lt;5°C)",IF(B287&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B287&lt;10,"Freddo(&lt;10°C)",IF(B287&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E287" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="18.75">
@@ -4487,7 +5366,10 @@
         <v>0</v>
       </c>
       <c r="D288" s="8">
-        <f>IF(B288&lt;5,"Freddo(&lt;5°C)",IF(B288&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B288&lt;10,"Freddo(&lt;10°C)",IF(B288&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E288" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="18.75">
@@ -4501,7 +5383,10 @@
         <v>0</v>
       </c>
       <c r="D289" s="8">
-        <f>IF(B289&lt;5,"Freddo(&lt;5°C)",IF(B289&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B289&lt;10,"Freddo(&lt;10°C)",IF(B289&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E289" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="18.75">
@@ -4515,7 +5400,10 @@
         <v>9.1</v>
       </c>
       <c r="D290" s="8">
-        <f>IF(B290&lt;5,"Freddo(&lt;5°C)",IF(B290&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B290&lt;10,"Freddo(&lt;10°C)",IF(B290&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E290" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="18.75">
@@ -4529,7 +5417,10 @@
         <v>6.5</v>
       </c>
       <c r="D291" s="8">
-        <f>IF(B291&lt;5,"Freddo(&lt;5°C)",IF(B291&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B291&lt;10,"Freddo(&lt;10°C)",IF(B291&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E291" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="18.75">
@@ -4543,7 +5434,10 @@
         <v>0</v>
       </c>
       <c r="D292" s="8">
-        <f>IF(B292&lt;5,"Freddo(&lt;5°C)",IF(B292&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B292&lt;10,"Freddo(&lt;10°C)",IF(B292&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E292" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="18.75">
@@ -4557,7 +5451,10 @@
         <v>0</v>
       </c>
       <c r="D293" s="8">
-        <f>IF(B293&lt;5,"Freddo(&lt;5°C)",IF(B293&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B293&lt;10,"Freddo(&lt;10°C)",IF(B293&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E293" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="18.75">
@@ -4571,7 +5468,10 @@
         <v>21</v>
       </c>
       <c r="D294" s="8">
-        <f>IF(B294&lt;5,"Freddo(&lt;5°C)",IF(B294&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B294&lt;10,"Freddo(&lt;10°C)",IF(B294&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E294" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="18.75">
@@ -4585,7 +5485,10 @@
         <v>0</v>
       </c>
       <c r="D295" s="8">
-        <f>IF(B295&lt;5,"Freddo(&lt;5°C)",IF(B295&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B295&lt;10,"Freddo(&lt;10°C)",IF(B295&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E295" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="18.75">
@@ -4599,7 +5502,10 @@
         <v>0</v>
       </c>
       <c r="D296" s="8">
-        <f>IF(B296&lt;5,"Freddo(&lt;5°C)",IF(B296&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B296&lt;10,"Freddo(&lt;10°C)",IF(B296&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E296" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="18.75">
@@ -4613,7 +5519,10 @@
         <v>0</v>
       </c>
       <c r="D297" s="8">
-        <f>IF(B297&lt;5,"Freddo(&lt;5°C)",IF(B297&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B297&lt;10,"Freddo(&lt;10°C)",IF(B297&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E297" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="18.75">
@@ -4627,7 +5536,10 @@
         <v>16.2</v>
       </c>
       <c r="D298" s="8">
-        <f>IF(B298&lt;5,"Freddo(&lt;5°C)",IF(B298&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B298&lt;10,"Freddo(&lt;10°C)",IF(B298&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E298" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="18.75">
@@ -4641,7 +5553,10 @@
         <v>14</v>
       </c>
       <c r="D299" s="8">
-        <f>IF(B299&lt;5,"Freddo(&lt;5°C)",IF(B299&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B299&lt;10,"Freddo(&lt;10°C)",IF(B299&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E299" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="18.75">
@@ -4655,7 +5570,10 @@
         <v>0</v>
       </c>
       <c r="D300" s="8">
-        <f>IF(B300&lt;5,"Freddo(&lt;5°C)",IF(B300&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B300&lt;10,"Freddo(&lt;10°C)",IF(B300&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E300" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="18.75">
@@ -4669,7 +5587,10 @@
         <v>0</v>
       </c>
       <c r="D301" s="8">
-        <f>IF(B301&lt;5,"Freddo(&lt;5°C)",IF(B301&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B301&lt;10,"Freddo(&lt;10°C)",IF(B301&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E301" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="18.75">
@@ -4683,7 +5604,10 @@
         <v>0</v>
       </c>
       <c r="D302" s="8">
-        <f>IF(B302&lt;5,"Freddo(&lt;5°C)",IF(B302&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B302&lt;10,"Freddo(&lt;10°C)",IF(B302&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E302" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="18.75">
@@ -4697,7 +5621,10 @@
         <v>2.5</v>
       </c>
       <c r="D303" s="8">
-        <f>IF(B303&lt;5,"Freddo(&lt;5°C)",IF(B303&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B303&lt;10,"Freddo(&lt;10°C)",IF(B303&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E303" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="18.75">
@@ -4711,7 +5638,10 @@
         <v>0</v>
       </c>
       <c r="D304" s="8">
-        <f>IF(B304&lt;5,"Freddo(&lt;5°C)",IF(B304&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B304&lt;10,"Freddo(&lt;10°C)",IF(B304&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E304" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="18.75">
@@ -4725,7 +5655,10 @@
         <v>0</v>
       </c>
       <c r="D305" s="8">
-        <f>IF(B305&lt;5,"Freddo(&lt;5°C)",IF(B305&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B305&lt;10,"Freddo(&lt;10°C)",IF(B305&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E305" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="18.75">
@@ -4739,7 +5672,10 @@
         <v>0</v>
       </c>
       <c r="D306" s="8">
-        <f>IF(B306&lt;5,"Freddo(&lt;5°C)",IF(B306&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B306&lt;10,"Freddo(&lt;10°C)",IF(B306&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E306" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="18.75">
@@ -4753,7 +5689,10 @@
         <v>0</v>
       </c>
       <c r="D307" s="8">
-        <f>IF(B307&lt;5,"Freddo(&lt;5°C)",IF(B307&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B307&lt;10,"Freddo(&lt;10°C)",IF(B307&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E307" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="18.75">
@@ -4767,7 +5706,10 @@
         <v>3.4</v>
       </c>
       <c r="D308" s="8">
-        <f>IF(B308&lt;5,"Freddo(&lt;5°C)",IF(B308&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B308&lt;10,"Freddo(&lt;10°C)",IF(B308&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E308" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="18.75">
@@ -4781,7 +5723,10 @@
         <v>0</v>
       </c>
       <c r="D309" s="8">
-        <f>IF(B309&lt;5,"Freddo(&lt;5°C)",IF(B309&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B309&lt;10,"Freddo(&lt;10°C)",IF(B309&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E309" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="18.75">
@@ -4795,7 +5740,10 @@
         <v>0</v>
       </c>
       <c r="D310" s="8">
-        <f>IF(B310&lt;5,"Freddo(&lt;5°C)",IF(B310&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B310&lt;10,"Freddo(&lt;10°C)",IF(B310&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E310" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="18.75">
@@ -4809,7 +5757,10 @@
         <v>4.7</v>
       </c>
       <c r="D311" s="8">
-        <f>IF(B311&lt;5,"Freddo(&lt;5°C)",IF(B311&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B311&lt;10,"Freddo(&lt;10°C)",IF(B311&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E311" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="18.75">
@@ -4823,7 +5774,10 @@
         <v>10.3</v>
       </c>
       <c r="D312" s="8">
-        <f>IF(B312&lt;5,"Freddo(&lt;5°C)",IF(B312&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B312&lt;10,"Freddo(&lt;10°C)",IF(B312&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E312" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="18.75">
@@ -4837,7 +5791,10 @@
         <v>0</v>
       </c>
       <c r="D313" s="8">
-        <f>IF(B313&lt;5,"Freddo(&lt;5°C)",IF(B313&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B313&lt;10,"Freddo(&lt;10°C)",IF(B313&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E313" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="18.75">
@@ -4851,7 +5808,10 @@
         <v>0</v>
       </c>
       <c r="D314" s="8">
-        <f>IF(B314&lt;5,"Freddo(&lt;5°C)",IF(B314&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B314&lt;10,"Freddo(&lt;10°C)",IF(B314&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E314" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="18.75">
@@ -4865,7 +5825,10 @@
         <v>0</v>
       </c>
       <c r="D315" s="8">
-        <f>IF(B315&lt;5,"Freddo(&lt;5°C)",IF(B315&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B315&lt;10,"Freddo(&lt;10°C)",IF(B315&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E315" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="18.75">
@@ -4879,7 +5842,10 @@
         <v>0</v>
       </c>
       <c r="D316" s="8">
-        <f>IF(B316&lt;5,"Freddo(&lt;5°C)",IF(B316&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B316&lt;10,"Freddo(&lt;10°C)",IF(B316&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E316" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="18.75">
@@ -4893,7 +5859,10 @@
         <v>0</v>
       </c>
       <c r="D317" s="8">
-        <f>IF(B317&lt;5,"Freddo(&lt;5°C)",IF(B317&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B317&lt;10,"Freddo(&lt;10°C)",IF(B317&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E317" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="18.75">
@@ -4907,7 +5876,10 @@
         <v>0</v>
       </c>
       <c r="D318" s="8">
-        <f>IF(B318&lt;5,"Freddo(&lt;5°C)",IF(B318&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B318&lt;10,"Freddo(&lt;10°C)",IF(B318&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E318" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="18.75">
@@ -4921,7 +5893,10 @@
         <v>0</v>
       </c>
       <c r="D319" s="8">
-        <f>IF(B319&lt;5,"Freddo(&lt;5°C)",IF(B319&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B319&lt;10,"Freddo(&lt;10°C)",IF(B319&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E319" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="18.75">
@@ -4935,7 +5910,10 @@
         <v>0</v>
       </c>
       <c r="D320" s="8">
-        <f>IF(B320&lt;5,"Freddo(&lt;5°C)",IF(B320&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B320&lt;10,"Freddo(&lt;10°C)",IF(B320&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E320" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="18.75">
@@ -4949,7 +5927,10 @@
         <v>0</v>
       </c>
       <c r="D321" s="8">
-        <f>IF(B321&lt;5,"Freddo(&lt;5°C)",IF(B321&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B321&lt;10,"Freddo(&lt;10°C)",IF(B321&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E321" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="18.75">
@@ -4963,7 +5944,10 @@
         <v>0</v>
       </c>
       <c r="D322" s="8">
-        <f>IF(B322&lt;5,"Freddo(&lt;5°C)",IF(B322&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B322&lt;10,"Freddo(&lt;10°C)",IF(B322&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E322" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="18.75">
@@ -4977,7 +5961,10 @@
         <v>0</v>
       </c>
       <c r="D323" s="8">
-        <f>IF(B323&lt;5,"Freddo(&lt;5°C)",IF(B323&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B323&lt;10,"Freddo(&lt;10°C)",IF(B323&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E323" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="18.75">
@@ -4991,7 +5978,10 @@
         <v>0</v>
       </c>
       <c r="D324" s="8">
-        <f>IF(B324&lt;5,"Freddo(&lt;5°C)",IF(B324&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B324&lt;10,"Freddo(&lt;10°C)",IF(B324&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E324" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="18.75">
@@ -5005,7 +5995,10 @@
         <v>0</v>
       </c>
       <c r="D325" s="8">
-        <f>IF(B325&lt;5,"Freddo(&lt;5°C)",IF(B325&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B325&lt;10,"Freddo(&lt;10°C)",IF(B325&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E325" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="18.75">
@@ -5019,7 +6012,10 @@
         <v>0</v>
       </c>
       <c r="D326" s="8">
-        <f>IF(B326&lt;5,"Freddo(&lt;5°C)",IF(B326&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B326&lt;10,"Freddo(&lt;10°C)",IF(B326&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E326" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="18.75">
@@ -5033,7 +6029,10 @@
         <v>0.2</v>
       </c>
       <c r="D327" s="8">
-        <f>IF(B327&lt;5,"Freddo(&lt;5°C)",IF(B327&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B327&lt;10,"Freddo(&lt;10°C)",IF(B327&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E327" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="18.75">
@@ -5047,7 +6046,10 @@
         <v>5.1</v>
       </c>
       <c r="D328" s="8">
-        <f>IF(B328&lt;5,"Freddo(&lt;5°C)",IF(B328&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B328&lt;10,"Freddo(&lt;10°C)",IF(B328&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E328" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="18.75">
@@ -5061,21 +6063,27 @@
         <v>0</v>
       </c>
       <c r="D329" s="8">
-        <f>IF(B329&lt;5,"Freddo(&lt;5°C)",IF(B329&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B329&lt;10,"Freddo(&lt;10°C)",IF(B329&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E329" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="18.75">
       <c r="A330" s="5">
         <v>45255</v>
       </c>
-      <c r="B330" s="7">
-        <v>11</v>
+      <c r="B330" s="6">
+        <v>9.8</v>
       </c>
       <c r="C330" s="6">
         <v>2.7</v>
       </c>
       <c r="D330" s="8">
-        <f>IF(B330&lt;5,"Freddo(&lt;5°C)",IF(B330&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B330&lt;10,"Freddo(&lt;10°C)",IF(B330&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E330" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="18.75">
@@ -5089,7 +6097,10 @@
         <v>0</v>
       </c>
       <c r="D331" s="8">
-        <f>IF(B331&lt;5,"Freddo(&lt;5°C)",IF(B331&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B331&lt;10,"Freddo(&lt;10°C)",IF(B331&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E331" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="18.75">
@@ -5103,7 +6114,10 @@
         <v>0</v>
       </c>
       <c r="D332" s="8">
-        <f>IF(B332&lt;5,"Freddo(&lt;5°C)",IF(B332&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B332&lt;10,"Freddo(&lt;10°C)",IF(B332&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E332" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="18.75">
@@ -5117,7 +6131,10 @@
         <v>0</v>
       </c>
       <c r="D333" s="8">
-        <f>IF(B333&lt;5,"Freddo(&lt;5°C)",IF(B333&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B333&lt;10,"Freddo(&lt;10°C)",IF(B333&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E333" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="18.75">
@@ -5131,7 +6148,10 @@
         <v>2.9</v>
       </c>
       <c r="D334" s="8">
-        <f>IF(B334&lt;5,"Freddo(&lt;5°C)",IF(B334&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B334&lt;10,"Freddo(&lt;10°C)",IF(B334&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E334" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="18.75">
@@ -5145,7 +6165,10 @@
         <v>0</v>
       </c>
       <c r="D335" s="8">
-        <f>IF(B335&lt;5,"Freddo(&lt;5°C)",IF(B335&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B335&lt;10,"Freddo(&lt;10°C)",IF(B335&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E335" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="18.75">
@@ -5159,7 +6182,10 @@
         <v>0</v>
       </c>
       <c r="D336" s="8">
-        <f>IF(B336&lt;5,"Freddo(&lt;5°C)",IF(B336&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B336&lt;10,"Freddo(&lt;10°C)",IF(B336&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E336" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="18.75">
@@ -5173,7 +6199,10 @@
         <v>0</v>
       </c>
       <c r="D337" s="8">
-        <f>IF(B337&lt;5,"Freddo(&lt;5°C)",IF(B337&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B337&lt;10,"Freddo(&lt;10°C)",IF(B337&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E337" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="18.75">
@@ -5187,7 +6216,10 @@
         <v>0</v>
       </c>
       <c r="D338" s="8">
-        <f>IF(B338&lt;5,"Freddo(&lt;5°C)",IF(B338&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B338&lt;10,"Freddo(&lt;10°C)",IF(B338&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E338" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="18.75">
@@ -5201,7 +6233,10 @@
         <v>0</v>
       </c>
       <c r="D339" s="8">
-        <f>IF(B339&lt;5,"Freddo(&lt;5°C)",IF(B339&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B339&lt;10,"Freddo(&lt;10°C)",IF(B339&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E339" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="18.75">
@@ -5215,7 +6250,10 @@
         <v>0</v>
       </c>
       <c r="D340" s="8">
-        <f>IF(B340&lt;5,"Freddo(&lt;5°C)",IF(B340&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B340&lt;10,"Freddo(&lt;10°C)",IF(B340&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E340" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="18.75">
@@ -5229,7 +6267,10 @@
         <v>0</v>
       </c>
       <c r="D341" s="8">
-        <f>IF(B341&lt;5,"Freddo(&lt;5°C)",IF(B341&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B341&lt;10,"Freddo(&lt;10°C)",IF(B341&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E341" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="18.75">
@@ -5243,7 +6284,10 @@
         <v>0</v>
       </c>
       <c r="D342" s="8">
-        <f>IF(B342&lt;5,"Freddo(&lt;5°C)",IF(B342&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B342&lt;10,"Freddo(&lt;10°C)",IF(B342&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E342" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="18.75">
@@ -5257,7 +6301,10 @@
         <v>0</v>
       </c>
       <c r="D343" s="8">
-        <f>IF(B343&lt;5,"Freddo(&lt;5°C)",IF(B343&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B343&lt;10,"Freddo(&lt;10°C)",IF(B343&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E343" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="18.75">
@@ -5271,7 +6318,10 @@
         <v>0</v>
       </c>
       <c r="D344" s="8">
-        <f>IF(B344&lt;5,"Freddo(&lt;5°C)",IF(B344&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B344&lt;10,"Freddo(&lt;10°C)",IF(B344&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E344" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="18.75">
@@ -5285,7 +6335,10 @@
         <v>0</v>
       </c>
       <c r="D345" s="8">
-        <f>IF(B345&lt;5,"Freddo(&lt;5°C)",IF(B345&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B345&lt;10,"Freddo(&lt;10°C)",IF(B345&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E345" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="18.75">
@@ -5299,7 +6352,10 @@
         <v>0</v>
       </c>
       <c r="D346" s="8">
-        <f>IF(B346&lt;5,"Freddo(&lt;5°C)",IF(B346&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B346&lt;10,"Freddo(&lt;10°C)",IF(B346&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E346" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="18.75">
@@ -5313,7 +6369,10 @@
         <v>0</v>
       </c>
       <c r="D347" s="8">
-        <f>IF(B347&lt;5,"Freddo(&lt;5°C)",IF(B347&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B347&lt;10,"Freddo(&lt;10°C)",IF(B347&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E347" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="18.75">
@@ -5327,7 +6386,10 @@
         <v>2.1</v>
       </c>
       <c r="D348" s="8">
-        <f>IF(B348&lt;5,"Freddo(&lt;5°C)",IF(B348&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B348&lt;10,"Freddo(&lt;10°C)",IF(B348&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E348" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="18.75">
@@ -5341,7 +6403,10 @@
         <v>0</v>
       </c>
       <c r="D349" s="8">
-        <f>IF(B349&lt;5,"Freddo(&lt;5°C)",IF(B349&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B349&lt;10,"Freddo(&lt;10°C)",IF(B349&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E349" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="18.75">
@@ -5355,7 +6420,10 @@
         <v>0</v>
       </c>
       <c r="D350" s="8">
-        <f>IF(B350&lt;5,"Freddo(&lt;5°C)",IF(B350&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B350&lt;10,"Freddo(&lt;10°C)",IF(B350&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E350" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="18.75">
@@ -5369,7 +6437,10 @@
         <v>0</v>
       </c>
       <c r="D351" s="8">
-        <f>IF(B351&lt;5,"Freddo(&lt;5°C)",IF(B351&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B351&lt;10,"Freddo(&lt;10°C)",IF(B351&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E351" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="18.75">
@@ -5383,7 +6454,10 @@
         <v>0</v>
       </c>
       <c r="D352" s="8">
-        <f>IF(B352&lt;5,"Freddo(&lt;5°C)",IF(B352&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B352&lt;10,"Freddo(&lt;10°C)",IF(B352&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E352" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="18.75">
@@ -5397,7 +6471,10 @@
         <v>10.3</v>
       </c>
       <c r="D353" s="8">
-        <f>IF(B353&lt;5,"Freddo(&lt;5°C)",IF(B353&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B353&lt;10,"Freddo(&lt;10°C)",IF(B353&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E353" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="18.75">
@@ -5411,7 +6488,10 @@
         <v>0</v>
       </c>
       <c r="D354" s="8">
-        <f>IF(B354&lt;5,"Freddo(&lt;5°C)",IF(B354&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B354&lt;10,"Freddo(&lt;10°C)",IF(B354&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E354" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="18.75">
@@ -5425,7 +6505,10 @@
         <v>7.1</v>
       </c>
       <c r="D355" s="8">
-        <f>IF(B355&lt;5,"Freddo(&lt;5°C)",IF(B355&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B355&lt;10,"Freddo(&lt;10°C)",IF(B355&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E355" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="18.75">
@@ -5439,7 +6522,10 @@
         <v>7.8</v>
       </c>
       <c r="D356" s="8">
-        <f>IF(B356&lt;5,"Freddo(&lt;5°C)",IF(B356&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B356&lt;10,"Freddo(&lt;10°C)",IF(B356&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E356" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="18.75">
@@ -5453,7 +6539,10 @@
         <v>0</v>
       </c>
       <c r="D357" s="8">
-        <f>IF(B357&lt;5,"Freddo(&lt;5°C)",IF(B357&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B357&lt;10,"Freddo(&lt;10°C)",IF(B357&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E357" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="18.75">
@@ -5467,7 +6556,10 @@
         <v>2.7</v>
       </c>
       <c r="D358" s="8">
-        <f>IF(B358&lt;5,"Freddo(&lt;5°C)",IF(B358&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B358&lt;10,"Freddo(&lt;10°C)",IF(B358&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E358" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="18.75">
@@ -5481,7 +6573,10 @@
         <v>0.5</v>
       </c>
       <c r="D359" s="8">
-        <f>IF(B359&lt;5,"Freddo(&lt;5°C)",IF(B359&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B359&lt;10,"Freddo(&lt;10°C)",IF(B359&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E359" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="18.75">
@@ -5495,7 +6590,10 @@
         <v>0</v>
       </c>
       <c r="D360" s="8">
-        <f>IF(B360&lt;5,"Freddo(&lt;5°C)",IF(B360&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B360&lt;10,"Freddo(&lt;10°C)",IF(B360&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E360" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="18.75">
@@ -5509,7 +6607,10 @@
         <v>1.3</v>
       </c>
       <c r="D361" s="8">
-        <f>IF(B361&lt;5,"Freddo(&lt;5°C)",IF(B361&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B361&lt;10,"Freddo(&lt;10°C)",IF(B361&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E361" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="18.75">
@@ -5523,7 +6624,10 @@
         <v>0</v>
       </c>
       <c r="D362" s="8">
-        <f>IF(B362&lt;5,"Freddo(&lt;5°C)",IF(B362&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B362&lt;10,"Freddo(&lt;10°C)",IF(B362&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E362" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="18.75">
@@ -5537,7 +6641,10 @@
         <v>0</v>
       </c>
       <c r="D363" s="8">
-        <f>IF(B363&lt;5,"Freddo(&lt;5°C)",IF(B363&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B363&lt;10,"Freddo(&lt;10°C)",IF(B363&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E363" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="18.75">
@@ -5551,7 +6658,10 @@
         <v>6.3</v>
       </c>
       <c r="D364" s="8">
-        <f>IF(B364&lt;5,"Freddo(&lt;5°C)",IF(B364&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B364&lt;10,"Freddo(&lt;10°C)",IF(B364&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E364" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="18.75">
@@ -5565,7 +6675,10 @@
         <v>4</v>
       </c>
       <c r="D365" s="8">
-        <f>IF(B365&lt;5,"Freddo(&lt;5°C)",IF(B365&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B365&lt;10,"Freddo(&lt;10°C)",IF(B365&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E365" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="18.75">
@@ -5579,10 +6692,16 @@
         <v>0</v>
       </c>
       <c r="D366" s="8">
-        <f>IF(B366&lt;5,"Freddo(&lt;5°C)",IF(B366&lt;=20,"Mite(5–20°C)","Caldo(&gt;20°C)"))</f>
+        <f>IF(B366&lt;10,"Freddo(&lt;10°C)",IF(B366&lt;=18,"Mite(10-18°C)","Caldo(&gt;18°C)"))</f>
+      </c>
+      <c r="E366" s="8">
+        <f>IF(Tabella1[[#This Row], [Pioggia_mm]]=0,"Nessuna pioggia",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=2,"Debole (0-2 mm)",IF(Tabella1[[#This Row], [Pioggia_mm]]&lt;=10,"Moderata (2-10 mm)","Forte (&gt;10mm)")))</f>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>